--- a/data/house/house.xlsx
+++ b/data/house/house.xlsx
@@ -1,20 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CVC\Formation\Python\DataScience\tp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conta\CVC\Formation\Python\Math\gitmath\data\house\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633F9668-B944-4CEC-B678-40A2C668BE46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-20640" yWindow="1992" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="house - Copie" sheetId="1" r:id="rId1"/>
+    <sheet name="house" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -30,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -539,11 +551,11 @@
     <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Commentaire" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -830,14 +842,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -845,7 +857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1330</v>
       </c>
@@ -853,7 +865,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1400</v>
       </c>
@@ -861,7 +873,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>904</v>
       </c>
@@ -869,7 +881,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>955</v>
       </c>
@@ -877,7 +889,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2545</v>
       </c>
@@ -885,7 +897,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>970</v>
       </c>
@@ -893,7 +905,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1560</v>
       </c>
@@ -901,7 +913,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1960</v>
       </c>
@@ -909,7 +921,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2000</v>
       </c>
@@ -917,7 +929,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2600</v>
       </c>
@@ -925,7 +937,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3280</v>
       </c>
@@ -933,7 +945,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>16000</v>
       </c>
@@ -941,7 +953,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>980</v>
       </c>
@@ -949,7 +961,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1250</v>
       </c>
@@ -957,7 +969,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>752</v>
       </c>
@@ -965,7 +977,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>815</v>
       </c>
@@ -973,7 +985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1147</v>
       </c>
@@ -981,7 +993,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1500</v>
       </c>
@@ -989,7 +1001,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3587</v>
       </c>
@@ -997,7 +1009,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1355</v>
       </c>
@@ -1005,7 +1017,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1245</v>
       </c>
@@ -1013,7 +1025,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1100</v>
       </c>
@@ -1021,7 +1033,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1120</v>
       </c>
@@ -1029,7 +1041,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1225</v>
       </c>
@@ -1037,7 +1049,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1250</v>
       </c>
@@ -1045,7 +1057,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1280</v>
       </c>
@@ -1053,7 +1065,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1114</v>
       </c>
@@ -1061,7 +1073,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1290</v>
       </c>
@@ -1069,7 +1081,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1300</v>
       </c>
@@ -1077,7 +1089,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1300</v>
       </c>
@@ -1085,7 +1097,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1304</v>
       </c>
@@ -1093,7 +1105,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1340</v>
       </c>
@@ -1101,7 +1113,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1344</v>
       </c>
@@ -1109,7 +1121,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1290</v>
       </c>
@@ -1117,7 +1129,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1364</v>
       </c>
@@ -1125,7 +1137,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1400</v>
       </c>
@@ -1133,7 +1145,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1400</v>
       </c>
@@ -1141,7 +1153,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1420</v>
       </c>
@@ -1149,7 +1161,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1420</v>
       </c>
@@ -1157,7 +1169,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1445</v>
       </c>
@@ -1165,7 +1177,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1500</v>
       </c>
@@ -1173,7 +1185,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1544</v>
       </c>
@@ -1181,7 +1193,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1550</v>
       </c>
@@ -1189,7 +1201,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1500</v>
       </c>
@@ -1197,7 +1209,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1612</v>
       </c>
@@ -1205,7 +1217,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1650</v>
       </c>
@@ -1213,7 +1225,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1533</v>
       </c>
@@ -1221,7 +1233,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1663</v>
       </c>
@@ -1229,7 +1241,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1584</v>
       </c>
@@ -1237,7 +1249,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1680</v>
       </c>
@@ -1245,7 +1257,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1700</v>
       </c>
@@ -1253,7 +1265,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1700</v>
       </c>
@@ -1261,7 +1273,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1700</v>
       </c>
@@ -1269,7 +1281,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1700</v>
       </c>
@@ -1277,7 +1289,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1700</v>
       </c>
@@ -1285,7 +1297,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1600</v>
       </c>
@@ -1293,7 +1305,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1700</v>
       </c>
@@ -1301,7 +1313,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1710</v>
       </c>
@@ -1309,7 +1321,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1600</v>
       </c>
@@ -1317,7 +1329,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1750</v>
       </c>
@@ -1325,7 +1337,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1765</v>
       </c>
@@ -1333,7 +1345,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1790</v>
       </c>
@@ -1341,7 +1353,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1689</v>
       </c>
@@ -1349,7 +1361,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1795</v>
       </c>
@@ -1357,7 +1369,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1800</v>
       </c>
@@ -1365,7 +1377,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1700</v>
       </c>
@@ -1373,7 +1385,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1800</v>
       </c>
@@ -1381,7 +1393,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1850</v>
       </c>
@@ -1389,7 +1401,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1850</v>
       </c>
@@ -1397,7 +1409,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1750</v>
       </c>
@@ -1405,7 +1417,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1850</v>
       </c>
@@ -1413,7 +1425,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1850</v>
       </c>
@@ -1421,7 +1433,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1850</v>
       </c>
@@ -1429,7 +1441,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1875</v>
       </c>
@@ -1437,7 +1449,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1900</v>
       </c>
@@ -1445,7 +1457,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1950</v>
       </c>
@@ -1453,7 +1465,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1750</v>
       </c>
@@ -1461,7 +1473,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2000</v>
       </c>
@@ -1469,7 +1481,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2044</v>
       </c>
@@ -1477,7 +1489,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2100</v>
       </c>
@@ -1485,7 +1497,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2100</v>
       </c>
@@ -1493,7 +1505,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2100</v>
       </c>
@@ -1501,7 +1513,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2100</v>
       </c>
@@ -1509,7 +1521,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2107</v>
       </c>
@@ -1517,7 +1529,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2116</v>
       </c>
@@ -1525,7 +1537,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2132</v>
       </c>
@@ -1533,7 +1545,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2000</v>
       </c>
@@ -1541,7 +1553,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2180</v>
       </c>
@@ -1549,7 +1561,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2100</v>
       </c>
@@ -1557,7 +1569,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2200</v>
       </c>
@@ -1565,7 +1577,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2200</v>
       </c>
@@ -1573,7 +1585,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2200</v>
       </c>
@@ -1581,7 +1593,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2216</v>
       </c>
@@ -1589,7 +1601,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2240</v>
       </c>
@@ -1597,7 +1609,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2249</v>
       </c>
@@ -1605,7 +1617,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2282</v>
       </c>
@@ -1613,7 +1625,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2300</v>
       </c>
@@ -1621,7 +1633,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2300</v>
       </c>
@@ -1629,7 +1641,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2320</v>
       </c>
@@ -1637,7 +1649,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2324</v>
       </c>
@@ -1645,7 +1657,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2324</v>
       </c>
@@ -1653,7 +1665,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2367</v>
       </c>
@@ -1661,7 +1673,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2400</v>
       </c>
@@ -1669,7 +1681,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2400</v>
       </c>
@@ -1677,7 +1689,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2445</v>
       </c>
@@ -1685,7 +1697,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2450</v>
       </c>
@@ -1693,7 +1705,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2450</v>
       </c>
@@ -1701,7 +1713,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2280</v>
       </c>
@@ -1709,7 +1721,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2250</v>
       </c>
@@ -1717,7 +1729,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2415</v>
       </c>
@@ -1725,7 +1737,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2470</v>
       </c>
@@ -1733,7 +1745,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2600</v>
       </c>
@@ -1741,7 +1753,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>2650</v>
       </c>
@@ -1749,7 +1761,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2650</v>
       </c>
@@ -1757,7 +1769,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2675</v>
       </c>
@@ -1765,7 +1777,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2550</v>
       </c>
@@ -1773,7 +1785,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2700</v>
       </c>
@@ -1781,7 +1793,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2780</v>
       </c>
@@ -1789,7 +1801,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2800</v>
       </c>
@@ -1797,7 +1809,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2800</v>
       </c>
@@ -1805,7 +1817,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2850</v>
       </c>
@@ -1813,7 +1825,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2941</v>
       </c>
@@ -1821,7 +1833,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2941</v>
       </c>
@@ -1829,7 +1841,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>3000</v>
       </c>
@@ -1837,7 +1849,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2800</v>
       </c>
@@ -1845,7 +1857,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>3000</v>
       </c>
@@ -1853,7 +1865,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>3000</v>
       </c>
@@ -1861,7 +1873,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>3010</v>
       </c>
@@ -1869,7 +1881,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2950</v>
       </c>
@@ -1877,7 +1889,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>3200</v>
       </c>
@@ -1885,7 +1897,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>3200</v>
       </c>
@@ -1893,7 +1905,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>3200</v>
       </c>
@@ -1901,7 +1913,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>3234</v>
       </c>
@@ -1909,7 +1921,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>3300</v>
       </c>
@@ -1917,7 +1929,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>3420</v>
       </c>
@@ -1925,7 +1937,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>3350</v>
       </c>
@@ -1933,7 +1945,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>3130</v>
       </c>
@@ -1941,7 +1953,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>3500</v>
       </c>
@@ -1949,7 +1961,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>3700</v>
       </c>
@@ -1957,7 +1969,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>3705</v>
       </c>
@@ -1965,7 +1977,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>3705</v>
       </c>
@@ -1973,7 +1985,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>3800</v>
       </c>
@@ -1981,7 +1993,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>3900</v>
       </c>
@@ -1989,7 +2001,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>3700</v>
       </c>
@@ -1997,7 +2009,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>4000</v>
       </c>
@@ -2005,7 +2017,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>4000</v>
       </c>
@@ -2013,7 +2025,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>3850</v>
       </c>
@@ -2021,7 +2033,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>4407</v>
       </c>
@@ -2029,7 +2041,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>5000</v>
       </c>
@@ -2037,7 +2049,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>5233</v>
       </c>
@@ -2045,7 +2057,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>5249</v>
       </c>
@@ -2053,7 +2065,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>5500</v>
       </c>
@@ -2061,7 +2073,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>5600</v>
       </c>
@@ -2069,7 +2081,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>5970</v>
       </c>
@@ -2077,7 +2089,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>6000</v>
       </c>
@@ -2085,7 +2097,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>6000</v>
       </c>
@@ -2093,7 +2105,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>7450</v>
       </c>
@@ -2101,7 +2113,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>7280</v>
       </c>
@@ -2109,7 +2121,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>10000</v>
       </c>
@@ -2117,7 +2129,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>14300</v>
       </c>
@@ -2125,7 +2137,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>15000</v>
       </c>
@@ -2133,7 +2145,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>775</v>
       </c>
@@ -2141,7 +2153,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>816</v>
       </c>
@@ -2149,7 +2161,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>800</v>
       </c>
@@ -2157,7 +2169,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>900</v>
       </c>
@@ -2165,7 +2177,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>900</v>
       </c>
@@ -2173,7 +2185,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>888</v>
       </c>
@@ -2181,7 +2193,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>960</v>
       </c>
@@ -2189,7 +2201,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>966</v>
       </c>
@@ -2197,7 +2209,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1000</v>
       </c>
@@ -2205,7 +2217,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1040</v>
       </c>
@@ -2213,7 +2225,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1048</v>
       </c>
@@ -2221,7 +2233,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1072</v>
       </c>
@@ -2229,7 +2241,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1090</v>
       </c>
@@ -2237,7 +2249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1100</v>
       </c>
@@ -2245,7 +2257,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1150</v>
       </c>
@@ -2253,7 +2265,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1180</v>
       </c>
@@ -2261,7 +2273,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1200</v>
       </c>
@@ -2269,7 +2281,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1200</v>
       </c>
@@ -2277,7 +2289,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1200</v>
       </c>
@@ -2285,7 +2297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1200</v>
       </c>
@@ -2293,7 +2305,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1218</v>
       </c>
@@ -2301,7 +2313,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1250</v>
       </c>
@@ -2309,7 +2321,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1250</v>
       </c>
@@ -2317,7 +2329,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1300</v>
       </c>
@@ -2325,7 +2337,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1329</v>
       </c>
@@ -2333,7 +2345,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1340</v>
       </c>
@@ -2341,7 +2353,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1500</v>
       </c>
@@ -2349,7 +2361,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1500</v>
       </c>
@@ -2357,7 +2369,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1550</v>
       </c>
@@ -2365,7 +2377,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1900</v>
       </c>
@@ -2373,7 +2385,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1910</v>
       </c>
@@ -2381,7 +2393,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>2700</v>
       </c>
@@ -2389,7 +2401,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>2950</v>
       </c>
@@ -2397,7 +2409,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>2700</v>
       </c>
@@ -2405,7 +2417,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>6500</v>
       </c>
@@ -2413,7 +2425,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>7500</v>
       </c>
@@ -2421,7 +2433,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1048</v>
       </c>
@@ -2429,7 +2441,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1650</v>
       </c>
@@ -2437,7 +2449,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1100</v>
       </c>
@@ -2445,7 +2457,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1133</v>
       </c>
@@ -2453,7 +2465,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1500</v>
       </c>
@@ -2461,7 +2473,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1530</v>
       </c>
@@ -2469,7 +2481,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1520</v>
       </c>
@@ -2477,7 +2489,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1600</v>
       </c>
@@ -2485,7 +2497,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1620</v>
       </c>
@@ -2493,7 +2505,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1700</v>
       </c>
@@ -2501,7 +2513,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1820</v>
       </c>
@@ -2509,7 +2521,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1850</v>
       </c>
@@ -2517,7 +2529,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1939</v>
       </c>
@@ -2525,7 +2537,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1958</v>
       </c>
@@ -2533,7 +2545,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1750</v>
       </c>
@@ -2541,7 +2553,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>2090</v>
       </c>
@@ -2549,7 +2561,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>2102</v>
       </c>
@@ -2557,7 +2569,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>2162</v>
       </c>
@@ -2565,7 +2577,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>2150</v>
       </c>
@@ -2573,7 +2585,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>2250</v>
       </c>
@@ -2581,7 +2593,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>2359</v>
       </c>
@@ -2589,7 +2601,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>2400</v>
       </c>
@@ -2597,7 +2609,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>2459</v>
       </c>
@@ -2605,7 +2617,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>2400</v>
       </c>
@@ -2613,7 +2625,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>2459</v>
       </c>
@@ -2621,7 +2633,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>2535</v>
       </c>
@@ -2629,7 +2641,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>2650</v>
       </c>
@@ -2637,7 +2649,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>2650</v>
       </c>
@@ -2645,7 +2657,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>2900</v>
       </c>
@@ -2653,7 +2665,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>2950</v>
       </c>
@@ -2661,7 +2673,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>3000</v>
       </c>
@@ -2669,7 +2681,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>3234</v>
       </c>
@@ -2677,7 +2689,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>3243</v>
       </c>
@@ -2685,7 +2697,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>4200</v>
       </c>
@@ -2693,7 +2705,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>4938</v>
       </c>
@@ -2701,7 +2713,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1100</v>
       </c>
@@ -2709,7 +2721,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>700</v>
       </c>
@@ -2717,7 +2729,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>880</v>
       </c>
@@ -2725,7 +2737,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>930</v>
       </c>
@@ -2733,7 +2745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>940</v>
       </c>
@@ -2741,7 +2753,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>950</v>
       </c>
@@ -2749,7 +2761,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>950</v>
       </c>
@@ -2757,7 +2769,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1000</v>
       </c>
@@ -2765,7 +2777,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1380</v>
       </c>
@@ -2773,7 +2785,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1700</v>
       </c>
@@ -2781,7 +2793,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1740</v>
       </c>
@@ -2789,7 +2801,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>2367</v>
       </c>
@@ -2797,7 +2809,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>2800</v>
       </c>
@@ -2805,7 +2817,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>3000</v>
       </c>
@@ -2813,7 +2825,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1365</v>
       </c>
@@ -2821,7 +2833,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>855</v>
       </c>
@@ -2829,7 +2841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1250</v>
       </c>
@@ -2837,7 +2849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>2132</v>
       </c>
@@ -2845,7 +2857,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>2840</v>
       </c>
@@ -2853,7 +2865,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>2614</v>
       </c>
@@ -2861,7 +2873,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>693</v>
       </c>
@@ -2869,7 +2881,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1000</v>
       </c>
@@ -2877,7 +2889,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>2200</v>
       </c>
@@ -2885,7 +2897,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1900</v>
       </c>
@@ -2893,7 +2905,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>2347</v>
       </c>
@@ -2901,7 +2913,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>3460</v>
       </c>
@@ -2909,7 +2921,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1100</v>
       </c>
@@ -2917,7 +2929,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1200</v>
       </c>
@@ -2925,7 +2937,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1313</v>
       </c>
@@ -2933,7 +2945,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1490</v>
       </c>
@@ -2941,7 +2953,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1850</v>
       </c>
@@ -2949,7 +2961,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1880</v>
       </c>
@@ -2957,7 +2969,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1900</v>
       </c>
@@ -2965,7 +2977,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1900</v>
       </c>
@@ -2973,7 +2985,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>2008</v>
       </c>
@@ -2981,7 +2993,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>2960</v>
       </c>
@@ -2989,7 +3001,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>3200</v>
       </c>
@@ -2997,7 +3009,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>3220</v>
       </c>
@@ -3005,7 +3017,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>3380</v>
       </c>
@@ -3013,7 +3025,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>3950</v>
       </c>
@@ -3021,7 +3033,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>645</v>
       </c>
@@ -3029,7 +3041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>682</v>
       </c>
@@ -3037,7 +3049,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>745</v>
       </c>
@@ -3045,7 +3057,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1780</v>
       </c>
@@ -3053,7 +3065,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1595</v>
       </c>
@@ -3061,7 +3073,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>4200</v>
       </c>
@@ -3069,7 +3081,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>9500</v>
       </c>
@@ -3077,7 +3089,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>973</v>
       </c>
@@ -3085,7 +3097,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1100</v>
       </c>
@@ -3093,7 +3105,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1851</v>
       </c>
@@ -3101,7 +3113,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1105</v>
       </c>
@@ -3109,7 +3121,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1200</v>
       </c>
@@ -3117,7 +3129,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1704</v>
       </c>
@@ -3125,7 +3137,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>800</v>
       </c>
@@ -3133,7 +3145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>985</v>
       </c>
@@ -3141,7 +3153,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1000</v>
       </c>
@@ -3149,7 +3161,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1006</v>
       </c>
@@ -3157,7 +3169,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1100</v>
       </c>
@@ -3165,7 +3177,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1220</v>
       </c>
@@ -3173,7 +3185,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1230</v>
       </c>
@@ -3181,7 +3193,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1270</v>
       </c>
@@ -3189,7 +3201,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1280</v>
       </c>
@@ -3197,7 +3209,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1290</v>
       </c>
@@ -3205,7 +3217,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1300</v>
       </c>
@@ -3213,7 +3225,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1340</v>
       </c>
@@ -3221,7 +3233,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1350</v>
       </c>
@@ -3229,7 +3241,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1380</v>
       </c>
@@ -3237,7 +3249,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1390</v>
       </c>
@@ -3245,7 +3257,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1390</v>
       </c>
@@ -3253,7 +3265,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1400</v>
       </c>
@@ -3261,7 +3273,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1400</v>
       </c>
@@ -3269,7 +3281,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1400</v>
       </c>
@@ -3277,7 +3289,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1500</v>
       </c>
@@ -3285,7 +3297,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1550</v>
       </c>
@@ -3293,7 +3305,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1570</v>
       </c>
@@ -3301,7 +3313,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1590</v>
       </c>
@@ -3309,7 +3321,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1600</v>
       </c>
@@ -3317,7 +3329,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1600</v>
       </c>
@@ -3325,7 +3337,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1627</v>
       </c>
@@ -3333,7 +3345,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1690</v>
       </c>
@@ -3341,7 +3353,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1696</v>
       </c>
@@ -3349,7 +3361,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1700</v>
       </c>
@@ -3357,7 +3369,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1700</v>
       </c>
@@ -3365,7 +3377,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1705</v>
       </c>
@@ -3373,7 +3385,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1750</v>
       </c>
@@ -3381,7 +3393,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1750</v>
       </c>
@@ -3389,7 +3401,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1800</v>
       </c>
@@ -3397,7 +3409,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1830</v>
       </c>
@@ -3405,7 +3417,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1726</v>
       </c>
@@ -3413,7 +3425,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1850</v>
       </c>
@@ -3421,7 +3433,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1875</v>
       </c>
@@ -3429,7 +3441,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1900</v>
       </c>
@@ -3437,7 +3449,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1930</v>
       </c>
@@ -3445,7 +3457,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1990</v>
       </c>
@@ -3453,7 +3465,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>2000</v>
       </c>
@@ -3461,7 +3473,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>2044</v>
       </c>
@@ -3469,7 +3481,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>2060</v>
       </c>
@@ -3477,7 +3489,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>2100</v>
       </c>
@@ -3485,7 +3497,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1922</v>
       </c>
@@ -3493,7 +3505,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>2190</v>
       </c>
@@ -3501,7 +3513,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>2250</v>
       </c>
@@ -3509,7 +3521,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>2250</v>
       </c>
@@ -3517,7 +3529,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>2300</v>
       </c>
@@ -3525,7 +3537,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>2300</v>
       </c>
@@ -3533,7 +3545,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>2309</v>
       </c>
@@ -3541,7 +3553,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>2450</v>
       </c>
@@ -3549,7 +3561,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>2471</v>
       </c>
@@ -3557,7 +3569,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>2500</v>
       </c>
@@ -3565,7 +3577,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>2500</v>
       </c>
@@ -3573,7 +3585,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>2500</v>
       </c>
@@ -3581,7 +3593,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>2500</v>
       </c>
@@ -3589,7 +3601,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>2587</v>
       </c>
@@ -3597,7 +3609,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>2700</v>
       </c>
@@ -3605,7 +3617,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>2700</v>
       </c>
@@ -3613,7 +3625,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>2750</v>
       </c>
@@ -3621,7 +3633,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>2800</v>
       </c>
@@ -3629,7 +3641,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>2800</v>
       </c>
@@ -3637,7 +3649,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>2886</v>
       </c>
@@ -3645,7 +3657,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>2900</v>
       </c>
@@ -3653,7 +3665,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>3000</v>
       </c>
@@ -3661,7 +3673,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>3000</v>
       </c>
@@ -3669,7 +3681,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>3000</v>
       </c>
@@ -3677,7 +3689,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>2840</v>
       </c>
@@ -3685,7 +3697,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>3100</v>
       </c>
@@ -3693,7 +3705,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>3179</v>
       </c>
@@ -3701,7 +3713,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>3200</v>
       </c>
@@ -3709,7 +3721,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>3200</v>
       </c>
@@ -3717,7 +3729,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>3000</v>
       </c>
@@ -3725,7 +3737,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>3200</v>
       </c>
@@ -3733,7 +3745,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>3300</v>
       </c>
@@ -3741,7 +3753,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>3300</v>
       </c>
@@ -3749,7 +3761,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>3300</v>
       </c>
@@ -3757,7 +3769,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>3460</v>
       </c>
@@ -3765,7 +3777,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>3500</v>
       </c>
@@ -3773,7 +3785,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>3650</v>
       </c>
@@ -3781,7 +3793,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>3660</v>
       </c>
@@ -3789,7 +3801,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>3680</v>
       </c>
@@ -3797,7 +3809,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>3700</v>
       </c>
@@ -3805,7 +3817,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>4500</v>
       </c>
@@ -3813,7 +3825,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>4600</v>
       </c>
@@ -3821,7 +3833,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>4930</v>
       </c>
@@ -3829,7 +3841,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>4937</v>
       </c>
@@ -3837,7 +3849,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>5100</v>
       </c>
@@ -3845,7 +3857,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>5233</v>
       </c>
@@ -3853,7 +3865,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>5249</v>
       </c>
@@ -3861,7 +3873,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>5000</v>
       </c>
@@ -3869,7 +3881,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>5307</v>
       </c>
@@ -3877,7 +3889,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>5950</v>
       </c>
@@ -3885,7 +3897,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>7450</v>
       </c>
@@ -3893,7 +3905,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>25000</v>
       </c>
@@ -3901,7 +3913,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>730</v>
       </c>
@@ -3909,7 +3921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>738</v>
       </c>
@@ -3917,7 +3929,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>821</v>
       </c>
@@ -3925,7 +3937,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>850</v>
       </c>
@@ -3933,7 +3945,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>854</v>
       </c>
@@ -3941,7 +3953,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>910</v>
       </c>
@@ -3949,7 +3961,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>940</v>
       </c>
@@ -3957,7 +3969,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>950</v>
       </c>
@@ -3965,7 +3977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>950</v>
       </c>
@@ -3973,7 +3985,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>976</v>
       </c>
@@ -3981,7 +3993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>990</v>
       </c>
@@ -3989,7 +4001,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>1190</v>
       </c>
@@ -3997,7 +4009,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>1095</v>
       </c>
@@ -4005,7 +4017,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>1210</v>
       </c>
@@ -4013,7 +4025,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>1250</v>
       </c>
@@ -4021,7 +4033,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>1255</v>
       </c>
@@ -4029,7 +4041,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>1255</v>
       </c>
@@ -4037,7 +4049,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>1300</v>
       </c>
@@ -4045,7 +4057,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>1380</v>
       </c>
@@ -4053,7 +4065,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>1500</v>
       </c>
@@ -4061,7 +4073,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>1500</v>
       </c>
@@ -4069,7 +4081,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>1510</v>
       </c>
@@ -4077,7 +4089,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>1550</v>
       </c>
@@ -4085,7 +4097,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>1560</v>
       </c>
@@ -4093,7 +4105,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>1580</v>
       </c>
@@ -4101,7 +4113,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>1640</v>
       </c>
@@ -4109,7 +4121,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>1650</v>
       </c>
@@ -4117,7 +4129,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>1665</v>
       </c>
@@ -4125,7 +4137,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>1865</v>
       </c>
@@ -4133,7 +4145,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>1920</v>
       </c>
@@ -4141,7 +4153,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>2000</v>
       </c>
@@ -4149,7 +4161,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>2000</v>
       </c>
@@ -4157,7 +4169,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>2130</v>
       </c>
@@ -4165,7 +4177,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>2200</v>
       </c>
@@ -4173,7 +4185,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>2300</v>
       </c>
@@ -4181,7 +4193,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>2500</v>
       </c>
@@ -4189,7 +4201,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>3750</v>
       </c>
@@ -4197,7 +4209,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>3800</v>
       </c>
@@ -4205,7 +4217,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>4100</v>
       </c>
@@ -4213,7 +4225,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>4300</v>
       </c>
@@ -4221,7 +4233,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>4500</v>
       </c>
@@ -4229,7 +4241,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>15000</v>
       </c>
@@ -4237,7 +4249,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>637</v>
       </c>
@@ -4245,7 +4257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>680</v>
       </c>
@@ -4253,7 +4265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>700</v>
       </c>
@@ -4261,7 +4273,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>960</v>
       </c>
@@ -4269,7 +4281,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>775</v>
       </c>
@@ -4277,7 +4289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>1250</v>
       </c>
@@ -4285,7 +4297,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>1380</v>
       </c>
@@ -4293,7 +4305,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>1630</v>
       </c>
@@ -4301,7 +4313,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>1650</v>
       </c>
@@ -4309,7 +4321,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>1765</v>
       </c>
@@ -4317,7 +4329,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>1900</v>
       </c>
@@ -4325,7 +4337,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>1787</v>
       </c>
@@ -4333,7 +4345,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>1920</v>
       </c>
@@ -4341,7 +4353,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>2132</v>
       </c>
@@ -4349,7 +4361,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>2132</v>
       </c>
@@ -4357,7 +4369,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>2200</v>
       </c>
@@ -4365,7 +4377,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>2272</v>
       </c>
@@ -4373,7 +4385,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>2400</v>
       </c>
@@ -4381,7 +4393,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>2350</v>
       </c>
@@ -4389,7 +4401,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>2657</v>
       </c>
@@ -4397,7 +4409,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>2999</v>
       </c>
@@ -4405,7 +4417,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>3000</v>
       </c>
@@ -4413,7 +4425,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>3460</v>
       </c>
@@ -4421,7 +4433,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>3600</v>
       </c>
@@ -4429,7 +4441,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>16000</v>
       </c>
@@ -4437,7 +4449,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>20000</v>
       </c>
@@ -4445,7 +4457,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>2290</v>
       </c>
@@ -4453,7 +4465,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>2927</v>
       </c>
@@ -4461,7 +4473,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>700</v>
       </c>
@@ -4469,7 +4481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>755</v>
       </c>
@@ -4477,7 +4489,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>990</v>
       </c>
@@ -4485,7 +4497,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>1058</v>
       </c>
@@ -4493,7 +4505,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>1095</v>
       </c>
@@ -4501,7 +4513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>1100</v>
       </c>
@@ -4509,7 +4521,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>1280</v>
       </c>
@@ -4517,7 +4529,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>1350</v>
       </c>
@@ -4525,7 +4537,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>1400</v>
       </c>
@@ -4533,7 +4545,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>1550</v>
       </c>
@@ -4541,7 +4553,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>1900</v>
       </c>
@@ -4549,7 +4561,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>2200</v>
       </c>
@@ -4557,7 +4569,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>3140</v>
       </c>
@@ -4565,7 +4577,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>600</v>
       </c>
@@ -4573,7 +4585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>600</v>
       </c>
@@ -4581,7 +4593,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>890</v>
       </c>
@@ -4589,7 +4601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>1050</v>
       </c>
@@ -4597,7 +4609,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>1100</v>
       </c>
@@ -4605,7 +4617,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>1650</v>
       </c>
@@ -4613,7 +4625,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>2090</v>
       </c>
@@ -4621,7 +4633,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>6300</v>
       </c>
@@ -4629,7 +4641,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>930</v>
       </c>
@@ -4637,7 +4649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>1980</v>
       </c>
@@ -4645,7 +4657,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>885</v>
       </c>
@@ -4653,7 +4665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>1060</v>
       </c>
@@ -4661,7 +4673,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>1200</v>
       </c>
@@ -4669,7 +4681,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>1500</v>
       </c>
@@ -4677,7 +4689,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>890</v>
       </c>
@@ -4685,7 +4697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>1300</v>
       </c>
@@ -4693,7 +4705,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>900</v>
       </c>
@@ -4701,7 +4713,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>1150</v>
       </c>
@@ -4709,7 +4721,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>840</v>
       </c>
@@ -4717,7 +4729,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>928</v>
       </c>
@@ -4725,7 +4737,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>981</v>
       </c>
@@ -4733,7 +4745,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>1180</v>
       </c>
@@ -4741,7 +4753,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>1198</v>
       </c>
@@ -4749,7 +4761,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>1450</v>
       </c>
@@ -4757,7 +4769,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>3000</v>
       </c>
@@ -4765,7 +4777,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>875</v>
       </c>
@@ -4773,7 +4785,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>998</v>
       </c>
@@ -4781,7 +4793,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>1000</v>
       </c>
@@ -4789,7 +4801,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>1250</v>
       </c>
@@ -4797,7 +4809,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>1480</v>
       </c>
@@ -4805,7 +4817,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>1900</v>
       </c>
@@ -4813,7 +4825,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>2500</v>
       </c>
@@ -4821,7 +4833,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>950</v>
       </c>
@@ -4829,7 +4841,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>1180</v>
       </c>
@@ -4837,7 +4849,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>1550</v>
       </c>
@@ -4845,7 +4857,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>1333</v>
       </c>
@@ -4853,7 +4865,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>1580</v>
       </c>
@@ -4861,7 +4873,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>850</v>
       </c>
@@ -4869,7 +4881,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>488</v>
       </c>
@@ -4877,7 +4889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>619</v>
       </c>
@@ -4885,7 +4897,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>820</v>
       </c>
@@ -4893,7 +4905,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>1350</v>
       </c>
@@ -4901,7 +4913,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>1475</v>
       </c>
@@ -4909,7 +4921,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>1397</v>
       </c>
@@ -4917,7 +4929,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>1460</v>
       </c>
@@ -4925,7 +4937,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>3200</v>
       </c>
@@ -4933,7 +4945,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>5000</v>
       </c>
@@ -4941,7 +4953,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>790</v>
       </c>
@@ -4949,7 +4961,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>800</v>
       </c>
@@ -4957,7 +4969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>810</v>
       </c>
@@ -4965,7 +4977,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>940</v>
       </c>
@@ -4973,7 +4985,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>898</v>
       </c>
@@ -4981,7 +4993,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>1137</v>
       </c>
@@ -4989,7 +5001,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>810</v>
       </c>
@@ -4997,7 +5009,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>940</v>
       </c>
@@ -5005,7 +5017,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>898</v>
       </c>
@@ -5013,7 +5025,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>1137</v>
       </c>
@@ -5021,7 +5033,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>1600</v>
       </c>
@@ -5029,7 +5041,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>2097</v>
       </c>
@@ -5037,7 +5049,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>733</v>
       </c>
@@ -5045,7 +5057,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>12000</v>
       </c>
@@ -5053,7 +5065,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>1166</v>
       </c>
@@ -5061,7 +5073,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>1500</v>
       </c>
@@ -5069,7 +5081,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>1900</v>
       </c>
@@ -5077,7 +5089,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>1900</v>
       </c>
@@ -5085,7 +5097,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>1950</v>
       </c>
@@ -5093,7 +5105,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>2000</v>
       </c>
@@ -5101,7 +5113,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>2950</v>
       </c>
@@ -5109,7 +5121,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>1200</v>
       </c>
@@ -5117,7 +5129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>1300</v>
       </c>
@@ -5125,7 +5137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>1400</v>
       </c>
@@ -5133,7 +5145,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>1690</v>
       </c>
@@ -5141,7 +5153,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>1940</v>
       </c>
@@ -5149,7 +5161,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>2100</v>
       </c>
@@ -5157,7 +5169,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>2490</v>
       </c>
@@ -5165,7 +5177,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>1490</v>
       </c>
@@ -5173,7 +5185,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>2020</v>
       </c>
@@ -5181,7 +5193,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>2050</v>
       </c>
@@ -5189,7 +5201,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>1220</v>
       </c>
@@ -5197,7 +5209,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>1610</v>
       </c>

--- a/data/house/house.xlsx
+++ b/data/house/house.xlsx
@@ -1,37 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conta\git-CVC\Formation\Python\Math\gitmath\data\house\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C598EFE3-4282-486E-9197-3FCED999284B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>loyer</t>
+  </si>
+  <si>
+    <t>surface</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +78,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,5924 +402,5919 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C537"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>loyer</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>surface</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>1330</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>37</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1400</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>32</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>904</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>26</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>955</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>30</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>2545</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>70</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>970</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>24</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1560</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>41</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1960</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>67</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>2000</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>63</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>2600</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>70</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>3280</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>81</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>980</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>26</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>1250</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>36</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>752</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>19</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>815</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>20</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>1147</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>25</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>1500</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>35</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>3587</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>120</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>1355</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>40</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>1245</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>30</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>1100</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>25</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>1120</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>21</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>1225</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>44</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1250</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>35</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>1280</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>54</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>1114</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>39</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>1290</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>34</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>1300</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>28</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>1300</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>32</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>1304</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>40</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>1340</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>42</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>1344</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>31</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>1290</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>33</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>1364</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>39</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>1400</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>47</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>1400</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>33</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>1420</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>37</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>1420</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>42</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>1445</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>46</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>1500</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>37</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>1544</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>46</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>1550</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>42</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>1500</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>49</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>1612</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>48</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>1650</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>50</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>1533</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>54</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>1663</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>54</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>1584</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>45</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>1680</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>53</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>1700</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>40</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>1700</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>35</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>1700</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>40</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>1700</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>35</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>1700</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>60</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>1600</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>30</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>1700</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>34</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>1710</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>64</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>1600</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>47</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>1750</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>43</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>1765</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>62</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>1790</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>50</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>1689</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>53</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>1795</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>50</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>1800</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>50</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>1700</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>60</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>1800</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>42</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>1850</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>52</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>1850</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>45</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>1750</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>41</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>1850</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>63</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>1850</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>53</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>1850</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>45</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>1875</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>53</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>1900</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>55</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>1950</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>46</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>1750</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>73</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>2000</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>53</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>2044</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>64</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>2100</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>38</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>2100</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>65</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>2100</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>59</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>2100</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>47</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>2107</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>75</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>2116</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>83</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>2132</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>69</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>2000</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>68</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>2180</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>69</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>2100</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>72</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>2200</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>40</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>2200</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>50</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>2200</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>60</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
         <v>92</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>2216</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>68</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>2240</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>69</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
         <v>94</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>2249</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>35</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
         <v>95</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>2282</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>78</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
         <v>96</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>2300</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>65</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
         <v>97</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>2300</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>54</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
         <v>98</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>2320</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>60</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
         <v>99</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>2324</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>64</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
         <v>100</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>2324</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>64</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
         <v>101</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>2367</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>76</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
         <v>102</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>2400</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>70</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
         <v>103</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>2400</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>70</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
         <v>104</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>2445</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>71</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
         <v>105</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>2450</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>84</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
         <v>106</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>2450</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>90</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
         <v>107</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>2280</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>96</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
         <v>108</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>2250</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>89</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
         <v>109</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>2415</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>75</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
         <v>110</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>2470</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>55</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
         <v>111</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>2600</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>56</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
         <v>112</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>2650</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>56</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
         <v>113</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>2650</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>56</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
         <v>114</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>2675</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>91</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
         <v>115</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>2550</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>100</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
         <v>116</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>2700</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>73</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
         <v>117</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>2780</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>94</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
         <v>118</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>2800</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>50</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
         <v>119</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>2800</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>60</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
         <v>120</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>2850</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>90</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
         <v>121</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>2941</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>96</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
         <v>122</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>2941</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>96</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
         <v>123</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>3000</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>50</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
         <v>124</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>2800</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>83</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
         <v>125</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>3000</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>99</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
         <v>126</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>3000</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>88</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
         <v>127</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>3010</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>104</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
         <v>128</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>2950</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>85</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
         <v>129</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>3200</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>70</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
         <v>130</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>3200</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>60</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
         <v>131</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>3200</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>84</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
         <v>132</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>3234</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>103</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
         <v>133</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>3300</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>108</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
         <v>134</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>3420</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>70</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
         <v>135</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>3350</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>88</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
         <v>136</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>3130</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>101</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
         <v>137</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>3500</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>103</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
         <v>138</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>3700</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>70</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
         <v>139</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>3705</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>53</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
         <v>140</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>3705</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>53</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
         <v>141</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>3800</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>72</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
         <v>142</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>3900</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>91</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
         <v>143</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>3700</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>97</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
         <v>144</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>4000</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>135</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
         <v>145</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>4000</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>80</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
         <v>146</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>3850</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>116</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
         <v>147</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>4407</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>152</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
         <v>148</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>5000</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>159</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
         <v>149</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>5233</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>162</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
         <v>150</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>5249</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>137</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
         <v>151</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>5500</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>160</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
         <v>152</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>5600</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>157</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
         <v>153</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>5970</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>160</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
         <v>154</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>6000</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>152</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
         <v>155</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>6000</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>152</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
         <v>156</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>7450</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>180</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
         <v>157</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>7280</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>182</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
         <v>161</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>775</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>20</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
         <v>162</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>816</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>19</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
         <v>163</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>800</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>19</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
         <v>164</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>900</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>18</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
         <v>165</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>900</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>28</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
         <v>166</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>888</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>24</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
         <v>167</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>960</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>21</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
         <v>168</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>966</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>30</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
         <v>169</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>1000</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>19</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
         <v>170</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>1040</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>26</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
         <v>171</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>1048</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>31</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
         <v>172</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>1072</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>32</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
         <v>173</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>1090</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>20</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
         <v>174</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>1100</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>26</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
         <v>175</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>1150</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>21</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
         <v>176</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>1180</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>23</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
         <v>177</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>1200</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>30</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
         <v>178</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>1200</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>32</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
         <v>179</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>1200</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>20</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
         <v>180</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>1200</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>20</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
         <v>181</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>1218</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>28</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
         <v>182</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>1250</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>21</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
         <v>183</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>1250</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>34</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
         <v>184</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>1300</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>22</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
         <v>185</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>1329</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>35</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
         <v>186</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>1340</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>30</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
         <v>187</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>1500</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>32</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
         <v>188</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>1500</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>32</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
         <v>189</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>1550</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>59</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
         <v>190</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>1900</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>50</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
         <v>191</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>1910</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>71</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
         <v>192</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>2700</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>50</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
         <v>193</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>2950</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>82</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
         <v>194</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>2700</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>50</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
         <v>195</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>6500</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>161</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
         <v>196</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>7500</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>150</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
         <v>197</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>1048</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>31</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
         <v>198</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>1650</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>45</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
         <v>199</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>1100</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>29</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
         <v>200</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>1133</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>33</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
         <v>201</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>1500</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>45</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
         <v>202</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>1530</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>35</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
         <v>203</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>1520</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>55</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
         <v>204</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>1600</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>32</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
         <v>205</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>1620</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>54</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
         <v>206</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>1700</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>60</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
         <v>207</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>1820</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>46</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
         <v>208</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>1850</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>66</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
         <v>209</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>1939</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>71</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
         <v>210</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>1958</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>74</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
         <v>211</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>1750</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>87</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
         <v>212</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>2090</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>62</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
         <v>213</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>2102</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>68</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
         <v>214</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>2162</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>75</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
         <v>215</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>2150</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>80</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
         <v>216</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>2250</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>74</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
         <v>217</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>2359</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>80</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
         <v>218</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>2400</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>112</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
         <v>219</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>2459</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>96</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
         <v>220</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>2400</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>112</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
         <v>221</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>2459</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>96</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
         <v>222</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>2535</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>86</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
         <v>223</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>2650</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>90</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
         <v>224</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>2650</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>98</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
         <v>225</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>2900</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>105</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
         <v>226</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>2950</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>70</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
         <v>227</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>3000</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>88</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
         <v>228</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>3234</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>105</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
         <v>229</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>3243</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>120</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
         <v>230</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>4200</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>117</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
         <v>231</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>4938</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>173</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
         <v>232</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>1100</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>31</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
         <v>233</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>700</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>23</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
         <v>234</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>880</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>21</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
         <v>235</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>930</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>15</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
         <v>236</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>940</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>27</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
         <v>237</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>950</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>21</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
         <v>238</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>950</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>21</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
         <v>239</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>1000</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>21</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
         <v>240</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>1380</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>36</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
         <v>241</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>1700</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>57</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
         <v>242</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>1740</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>49</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
         <v>243</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>2367</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>76</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
         <v>244</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>2800</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>83</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
         <v>245</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>3000</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>104</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
         <v>246</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>1365</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>44</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
         <v>247</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>855</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>20</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
         <v>248</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>1250</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>30</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
         <v>249</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>2132</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>69</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
         <v>250</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>2840</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>77</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
         <v>251</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>2614</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>96</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
         <v>252</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>693</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>19</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
         <v>253</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>1000</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>20</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
         <v>254</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>2200</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>27</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
         <v>255</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>1900</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>60</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
         <v>256</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>2347</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>72</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
         <v>257</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>3460</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>103</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
         <v>258</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>1100</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>25</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
         <v>259</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>1200</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>30</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
         <v>260</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>1313</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>40</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
         <v>261</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>1490</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>54</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
         <v>262</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>1850</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>59</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
         <v>263</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>1880</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>62</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
         <v>264</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>1900</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>64</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
         <v>265</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>1900</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>48</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
         <v>266</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>2008</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>87</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
         <v>267</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>2960</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>106</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
         <v>268</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>3200</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>114</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" s="1">
         <v>269</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>3220</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>110</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
         <v>270</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>3380</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>129</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
         <v>271</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>3950</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>125</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
         <v>272</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>645</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>15</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
         <v>273</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>682</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>17</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
         <v>274</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>745</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>20</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
         <v>275</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>1780</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>45</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
         <v>276</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>1595</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>54</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
         <v>277</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>4200</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>105</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
         <v>278</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>9500</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>150</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
         <v>279</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>973</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>29</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
         <v>280</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>1100</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>36</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
         <v>281</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>1851</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>50</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
         <v>282</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>1105</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>33</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
         <v>283</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>1200</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>40</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
         <v>284</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>1704</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>56</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
         <v>285</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>800</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>15</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
         <v>286</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>985</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>34</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
         <v>287</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>1000</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>29</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
         <v>288</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>1006</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>26</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
         <v>289</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>1100</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>37</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
         <v>290</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>1220</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>32</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
         <v>291</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>1230</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>35</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
         <v>292</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>1270</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>30</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
         <v>293</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>1280</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>31</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
         <v>294</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>1290</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>38</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
         <v>295</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>1300</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>39</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
         <v>296</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>1340</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>34</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
         <v>297</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>1350</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>39</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
         <v>298</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>1380</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>40</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
         <v>299</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>1390</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>47</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
         <v>300</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>1390</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>40</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
         <v>301</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>1400</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>52</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
         <v>302</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>1400</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>40</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" s="1">
         <v>303</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>1400</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>33</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
         <v>304</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>1500</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>40</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
         <v>305</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>1550</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>50</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
         <v>306</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>1570</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>51</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
         <v>307</v>
       </c>
-      <c r="B305" t="n">
+      <c r="B305">
         <v>1590</v>
       </c>
-      <c r="C305" t="n">
+      <c r="C305">
         <v>45</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" s="1">
         <v>308</v>
       </c>
-      <c r="B306" t="n">
+      <c r="B306">
         <v>1600</v>
       </c>
-      <c r="C306" t="n">
+      <c r="C306">
         <v>35</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" s="1">
         <v>309</v>
       </c>
-      <c r="B307" t="n">
+      <c r="B307">
         <v>1600</v>
       </c>
-      <c r="C307" t="n">
+      <c r="C307">
         <v>37</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" s="1">
         <v>310</v>
       </c>
-      <c r="B308" t="n">
+      <c r="B308">
         <v>1627</v>
       </c>
-      <c r="C308" t="n">
+      <c r="C308">
         <v>46</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" s="1">
         <v>311</v>
       </c>
-      <c r="B309" t="n">
+      <c r="B309">
         <v>1690</v>
       </c>
-      <c r="C309" t="n">
+      <c r="C309">
         <v>56</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310" s="1">
         <v>312</v>
       </c>
-      <c r="B310" t="n">
+      <c r="B310">
         <v>1696</v>
       </c>
-      <c r="C310" t="n">
+      <c r="C310">
         <v>57</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" s="1">
         <v>313</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B311">
         <v>1700</v>
       </c>
-      <c r="C311" t="n">
+      <c r="C311">
         <v>45</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" s="1">
         <v>314</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B312">
         <v>1700</v>
       </c>
-      <c r="C312" t="n">
+      <c r="C312">
         <v>47</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" s="1">
         <v>315</v>
       </c>
-      <c r="B313" t="n">
+      <c r="B313">
         <v>1705</v>
       </c>
-      <c r="C313" t="n">
+      <c r="C313">
         <v>75</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" s="1">
         <v>316</v>
       </c>
-      <c r="B314" t="n">
+      <c r="B314">
         <v>1750</v>
       </c>
-      <c r="C314" t="n">
+      <c r="C314">
         <v>51</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
         <v>317</v>
       </c>
-      <c r="B315" t="n">
+      <c r="B315">
         <v>1750</v>
       </c>
-      <c r="C315" t="n">
+      <c r="C315">
         <v>49</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
         <v>318</v>
       </c>
-      <c r="B316" t="n">
+      <c r="B316">
         <v>1800</v>
       </c>
-      <c r="C316" t="n">
+      <c r="C316">
         <v>40</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
         <v>319</v>
       </c>
-      <c r="B317" t="n">
+      <c r="B317">
         <v>1830</v>
       </c>
-      <c r="C317" t="n">
+      <c r="C317">
         <v>64</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
         <v>320</v>
       </c>
-      <c r="B318" t="n">
+      <c r="B318">
         <v>1726</v>
       </c>
-      <c r="C318" t="n">
+      <c r="C318">
         <v>62</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
         <v>321</v>
       </c>
-      <c r="B319" t="n">
+      <c r="B319">
         <v>1850</v>
       </c>
-      <c r="C319" t="n">
+      <c r="C319">
         <v>35</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
         <v>322</v>
       </c>
-      <c r="B320" t="n">
+      <c r="B320">
         <v>1875</v>
       </c>
-      <c r="C320" t="n">
+      <c r="C320">
         <v>42</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" s="1">
         <v>323</v>
       </c>
-      <c r="B321" t="n">
+      <c r="B321">
         <v>1900</v>
       </c>
-      <c r="C321" t="n">
+      <c r="C321">
         <v>45</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
         <v>324</v>
       </c>
-      <c r="B322" t="n">
+      <c r="B322">
         <v>1930</v>
       </c>
-      <c r="C322" t="n">
+      <c r="C322">
         <v>64</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" s="1">
         <v>325</v>
       </c>
-      <c r="B323" t="n">
+      <c r="B323">
         <v>1990</v>
       </c>
-      <c r="C323" t="n">
+      <c r="C323">
         <v>61</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
         <v>326</v>
       </c>
-      <c r="B324" t="n">
+      <c r="B324">
         <v>2000</v>
       </c>
-      <c r="C324" t="n">
+      <c r="C324">
         <v>50</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
         <v>327</v>
       </c>
-      <c r="B325" t="n">
+      <c r="B325">
         <v>2044</v>
       </c>
-      <c r="C325" t="n">
+      <c r="C325">
         <v>64</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
         <v>328</v>
       </c>
-      <c r="B326" t="n">
+      <c r="B326">
         <v>2060</v>
       </c>
-      <c r="C326" t="n">
+      <c r="C326">
         <v>69</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
         <v>329</v>
       </c>
-      <c r="B327" t="n">
+      <c r="B327">
         <v>2100</v>
       </c>
-      <c r="C327" t="n">
+      <c r="C327">
         <v>50</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
         <v>330</v>
       </c>
-      <c r="B328" t="n">
+      <c r="B328">
         <v>1922</v>
       </c>
-      <c r="C328" t="n">
+      <c r="C328">
         <v>73</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
         <v>331</v>
       </c>
-      <c r="B329" t="n">
+      <c r="B329">
         <v>2190</v>
       </c>
-      <c r="C329" t="n">
+      <c r="C329">
         <v>70</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
         <v>332</v>
       </c>
-      <c r="B330" t="n">
+      <c r="B330">
         <v>2250</v>
       </c>
-      <c r="C330" t="n">
+      <c r="C330">
         <v>66</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" s="1">
         <v>333</v>
       </c>
-      <c r="B331" t="n">
+      <c r="B331">
         <v>2250</v>
       </c>
-      <c r="C331" t="n">
+      <c r="C331">
         <v>55</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" s="1">
         <v>334</v>
       </c>
-      <c r="B332" t="n">
+      <c r="B332">
         <v>2300</v>
       </c>
-      <c r="C332" t="n">
+      <c r="C332">
         <v>65</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" s="1">
         <v>335</v>
       </c>
-      <c r="B333" t="n">
+      <c r="B333">
         <v>2300</v>
       </c>
-      <c r="C333" t="n">
+      <c r="C333">
         <v>80</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" s="1">
         <v>336</v>
       </c>
-      <c r="B334" t="n">
+      <c r="B334">
         <v>2309</v>
       </c>
-      <c r="C334" t="n">
+      <c r="C334">
         <v>88</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A335" s="1">
         <v>337</v>
       </c>
-      <c r="B335" t="n">
+      <c r="B335">
         <v>2450</v>
       </c>
-      <c r="C335" t="n">
+      <c r="C335">
         <v>54</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336" s="1">
         <v>338</v>
       </c>
-      <c r="B336" t="n">
+      <c r="B336">
         <v>2471</v>
       </c>
-      <c r="C336" t="n">
+      <c r="C336">
         <v>89</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337" s="1">
         <v>339</v>
       </c>
-      <c r="B337" t="n">
+      <c r="B337">
         <v>2500</v>
       </c>
-      <c r="C337" t="n">
+      <c r="C337">
         <v>52</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A338" s="1">
         <v>340</v>
       </c>
-      <c r="B338" t="n">
+      <c r="B338">
         <v>2500</v>
       </c>
-      <c r="C338" t="n">
+      <c r="C338">
         <v>32</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A339" s="1">
         <v>341</v>
       </c>
-      <c r="B339" t="n">
+      <c r="B339">
         <v>2500</v>
       </c>
-      <c r="C339" t="n">
+      <c r="C339">
         <v>63</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A340" s="1">
         <v>342</v>
       </c>
-      <c r="B340" t="n">
+      <c r="B340">
         <v>2500</v>
       </c>
-      <c r="C340" t="n">
+      <c r="C340">
         <v>76</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A341" s="1">
         <v>343</v>
       </c>
-      <c r="B341" t="n">
+      <c r="B341">
         <v>2587</v>
       </c>
-      <c r="C341" t="n">
+      <c r="C341">
         <v>73</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A342" s="1">
         <v>344</v>
       </c>
-      <c r="B342" t="n">
+      <c r="B342">
         <v>2700</v>
       </c>
-      <c r="C342" t="n">
+      <c r="C342">
         <v>101</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343" s="1">
         <v>345</v>
       </c>
-      <c r="B343" t="n">
+      <c r="B343">
         <v>2700</v>
       </c>
-      <c r="C343" t="n">
+      <c r="C343">
         <v>84</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344" s="1">
         <v>346</v>
       </c>
-      <c r="B344" t="n">
+      <c r="B344">
         <v>2750</v>
       </c>
-      <c r="C344" t="n">
+      <c r="C344">
         <v>81</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A345" s="1">
         <v>347</v>
       </c>
-      <c r="B345" t="n">
+      <c r="B345">
         <v>2800</v>
       </c>
-      <c r="C345" t="n">
+      <c r="C345">
         <v>68</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A346" s="1">
         <v>348</v>
       </c>
-      <c r="B346" t="n">
+      <c r="B346">
         <v>2800</v>
       </c>
-      <c r="C346" t="n">
+      <c r="C346">
         <v>60</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347" s="1">
         <v>349</v>
       </c>
-      <c r="B347" t="n">
+      <c r="B347">
         <v>2886</v>
       </c>
-      <c r="C347" t="n">
+      <c r="C347">
         <v>85</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A348" s="1">
         <v>350</v>
       </c>
-      <c r="B348" t="n">
+      <c r="B348">
         <v>2900</v>
       </c>
-      <c r="C348" t="n">
+      <c r="C348">
         <v>110</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A349" s="1">
         <v>351</v>
       </c>
-      <c r="B349" t="n">
+      <c r="B349">
         <v>3000</v>
       </c>
-      <c r="C349" t="n">
+      <c r="C349">
         <v>95</v>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A350" s="1">
         <v>352</v>
       </c>
-      <c r="B350" t="n">
+      <c r="B350">
         <v>3000</v>
       </c>
-      <c r="C350" t="n">
+      <c r="C350">
         <v>101</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A351" s="1">
         <v>353</v>
       </c>
-      <c r="B351" t="n">
+      <c r="B351">
         <v>3000</v>
       </c>
-      <c r="C351" t="n">
+      <c r="C351">
         <v>90</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A352" s="1">
         <v>354</v>
       </c>
-      <c r="B352" t="n">
+      <c r="B352">
         <v>2840</v>
       </c>
-      <c r="C352" t="n">
+      <c r="C352">
         <v>100</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A353" s="1">
         <v>355</v>
       </c>
-      <c r="B353" t="n">
+      <c r="B353">
         <v>3100</v>
       </c>
-      <c r="C353" t="n">
+      <c r="C353">
         <v>100</v>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A354" s="1">
         <v>356</v>
       </c>
-      <c r="B354" t="n">
+      <c r="B354">
         <v>3179</v>
       </c>
-      <c r="C354" t="n">
+      <c r="C354">
         <v>72</v>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A355" s="1">
         <v>357</v>
       </c>
-      <c r="B355" t="n">
+      <c r="B355">
         <v>3200</v>
       </c>
-      <c r="C355" t="n">
+      <c r="C355">
         <v>114</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A356" s="1">
         <v>358</v>
       </c>
-      <c r="B356" t="n">
+      <c r="B356">
         <v>3200</v>
       </c>
-      <c r="C356" t="n">
+      <c r="C356">
         <v>110</v>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A357" s="1">
         <v>359</v>
       </c>
-      <c r="B357" t="n">
+      <c r="B357">
         <v>3000</v>
       </c>
-      <c r="C357" t="n">
+      <c r="C357">
         <v>110</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A358" s="1">
         <v>360</v>
       </c>
-      <c r="B358" t="n">
+      <c r="B358">
         <v>3200</v>
       </c>
-      <c r="C358" t="n">
+      <c r="C358">
         <v>105</v>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A359" s="1">
         <v>361</v>
       </c>
-      <c r="B359" t="n">
+      <c r="B359">
         <v>3300</v>
       </c>
-      <c r="C359" t="n">
+      <c r="C359">
         <v>101</v>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A360" s="1">
         <v>362</v>
       </c>
-      <c r="B360" t="n">
+      <c r="B360">
         <v>3300</v>
       </c>
-      <c r="C360" t="n">
+      <c r="C360">
         <v>95</v>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A361" s="1">
         <v>363</v>
       </c>
-      <c r="B361" t="n">
+      <c r="B361">
         <v>3300</v>
       </c>
-      <c r="C361" t="n">
+      <c r="C361">
         <v>108</v>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362" s="1">
         <v>364</v>
       </c>
-      <c r="B362" t="n">
+      <c r="B362">
         <v>3460</v>
       </c>
-      <c r="C362" t="n">
+      <c r="C362">
         <v>103</v>
       </c>
     </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363" s="1">
         <v>365</v>
       </c>
-      <c r="B363" t="n">
+      <c r="B363">
         <v>3500</v>
       </c>
-      <c r="C363" t="n">
+      <c r="C363">
         <v>78</v>
       </c>
     </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364" s="1">
         <v>366</v>
       </c>
-      <c r="B364" t="n">
+      <c r="B364">
         <v>3650</v>
       </c>
-      <c r="C364" t="n">
+      <c r="C364">
         <v>120</v>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365" s="1">
         <v>367</v>
       </c>
-      <c r="B365" t="n">
+      <c r="B365">
         <v>3660</v>
       </c>
-      <c r="C365" t="n">
+      <c r="C365">
         <v>100</v>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366" s="1">
         <v>368</v>
       </c>
-      <c r="B366" t="n">
+      <c r="B366">
         <v>3680</v>
       </c>
-      <c r="C366" t="n">
+      <c r="C366">
         <v>112</v>
       </c>
     </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367" s="1">
         <v>369</v>
       </c>
-      <c r="B367" t="n">
+      <c r="B367">
         <v>3700</v>
       </c>
-      <c r="C367" t="n">
+      <c r="C367">
         <v>145</v>
       </c>
     </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368" s="1">
         <v>370</v>
       </c>
-      <c r="B368" t="n">
+      <c r="B368">
         <v>4500</v>
       </c>
-      <c r="C368" t="n">
+      <c r="C368">
         <v>117</v>
       </c>
     </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369" s="1">
         <v>371</v>
       </c>
-      <c r="B369" t="n">
+      <c r="B369">
         <v>4600</v>
       </c>
-      <c r="C369" t="n">
+      <c r="C369">
         <v>131</v>
       </c>
     </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" s="1">
         <v>372</v>
       </c>
-      <c r="B370" t="n">
+      <c r="B370">
         <v>4930</v>
       </c>
-      <c r="C370" t="n">
+      <c r="C370">
         <v>117</v>
       </c>
     </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" s="1">
         <v>373</v>
       </c>
-      <c r="B371" t="n">
+      <c r="B371">
         <v>4937</v>
       </c>
-      <c r="C371" t="n">
+      <c r="C371">
         <v>173</v>
       </c>
     </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" s="1">
         <v>374</v>
       </c>
-      <c r="B372" t="n">
+      <c r="B372">
         <v>5100</v>
       </c>
-      <c r="C372" t="n">
+      <c r="C372">
         <v>100</v>
       </c>
     </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" s="1">
         <v>375</v>
       </c>
-      <c r="B373" t="n">
+      <c r="B373">
         <v>5233</v>
       </c>
-      <c r="C373" t="n">
+      <c r="C373">
         <v>162</v>
       </c>
     </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374" s="1">
         <v>376</v>
       </c>
-      <c r="B374" t="n">
+      <c r="B374">
         <v>5249</v>
       </c>
-      <c r="C374" t="n">
+      <c r="C374">
         <v>162</v>
       </c>
     </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" s="1">
         <v>377</v>
       </c>
-      <c r="B375" t="n">
+      <c r="B375">
         <v>5000</v>
       </c>
-      <c r="C375" t="n">
+      <c r="C375">
         <v>152</v>
       </c>
     </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" s="1">
         <v>378</v>
       </c>
-      <c r="B376" t="n">
+      <c r="B376">
         <v>5307</v>
       </c>
-      <c r="C376" t="n">
+      <c r="C376">
         <v>175</v>
       </c>
     </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377" s="1">
         <v>380</v>
       </c>
-      <c r="B377" t="n">
+      <c r="B377">
         <v>7450</v>
       </c>
-      <c r="C377" t="n">
+      <c r="C377">
         <v>180</v>
       </c>
     </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" s="1">
         <v>382</v>
       </c>
-      <c r="B378" t="n">
+      <c r="B378">
         <v>730</v>
       </c>
-      <c r="C378" t="n">
+      <c r="C378">
         <v>11</v>
       </c>
     </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" s="1">
         <v>383</v>
       </c>
-      <c r="B379" t="n">
+      <c r="B379">
         <v>738</v>
       </c>
-      <c r="C379" t="n">
+      <c r="C379">
         <v>14</v>
       </c>
     </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" s="1">
         <v>384</v>
       </c>
-      <c r="B380" t="n">
+      <c r="B380">
         <v>821</v>
       </c>
-      <c r="C380" t="n">
+      <c r="C380">
         <v>18</v>
       </c>
     </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" s="1">
         <v>385</v>
       </c>
-      <c r="B381" t="n">
+      <c r="B381">
         <v>850</v>
       </c>
-      <c r="C381" t="n">
+      <c r="C381">
         <v>16</v>
       </c>
     </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382" s="1">
         <v>386</v>
       </c>
-      <c r="B382" t="n">
+      <c r="B382">
         <v>854</v>
       </c>
-      <c r="C382" t="n">
+      <c r="C382">
         <v>25</v>
       </c>
     </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383" s="1">
         <v>387</v>
       </c>
-      <c r="B383" t="n">
+      <c r="B383">
         <v>910</v>
       </c>
-      <c r="C383" t="n">
+      <c r="C383">
         <v>24</v>
       </c>
     </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384" s="1">
         <v>388</v>
       </c>
-      <c r="B384" t="n">
+      <c r="B384">
         <v>940</v>
       </c>
-      <c r="C384" t="n">
+      <c r="C384">
         <v>19</v>
       </c>
     </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A385" s="1">
         <v>389</v>
       </c>
-      <c r="B385" t="n">
+      <c r="B385">
         <v>950</v>
       </c>
-      <c r="C385" t="n">
+      <c r="C385">
         <v>20</v>
       </c>
     </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A386" s="1">
         <v>390</v>
       </c>
-      <c r="B386" t="n">
+      <c r="B386">
         <v>950</v>
       </c>
-      <c r="C386" t="n">
+      <c r="C386">
         <v>21</v>
       </c>
     </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A387" s="1">
         <v>391</v>
       </c>
-      <c r="B387" t="n">
+      <c r="B387">
         <v>976</v>
       </c>
-      <c r="C387" t="n">
+      <c r="C387">
         <v>23</v>
       </c>
     </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A388" s="1">
         <v>392</v>
       </c>
-      <c r="B388" t="n">
+      <c r="B388">
         <v>990</v>
       </c>
-      <c r="C388" t="n">
+      <c r="C388">
         <v>27</v>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A389" s="1">
         <v>393</v>
       </c>
-      <c r="B389" t="n">
+      <c r="B389">
         <v>1190</v>
       </c>
-      <c r="C389" t="n">
+      <c r="C389">
         <v>29</v>
       </c>
     </row>
-    <row r="390">
-      <c r="A390" s="1" t="n">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A390" s="1">
         <v>394</v>
       </c>
-      <c r="B390" t="n">
+      <c r="B390">
         <v>1095</v>
       </c>
-      <c r="C390" t="n">
+      <c r="C390">
         <v>30</v>
       </c>
     </row>
-    <row r="391">
-      <c r="A391" s="1" t="n">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A391" s="1">
         <v>395</v>
       </c>
-      <c r="B391" t="n">
+      <c r="B391">
         <v>1210</v>
       </c>
-      <c r="C391" t="n">
+      <c r="C391">
         <v>40</v>
       </c>
     </row>
-    <row r="392">
-      <c r="A392" s="1" t="n">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A392" s="1">
         <v>396</v>
       </c>
-      <c r="B392" t="n">
+      <c r="B392">
         <v>1250</v>
       </c>
-      <c r="C392" t="n">
+      <c r="C392">
         <v>28</v>
       </c>
     </row>
-    <row r="393">
-      <c r="A393" s="1" t="n">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A393" s="1">
         <v>397</v>
       </c>
-      <c r="B393" t="n">
+      <c r="B393">
         <v>1255</v>
       </c>
-      <c r="C393" t="n">
+      <c r="C393">
         <v>24</v>
       </c>
     </row>
-    <row r="394">
-      <c r="A394" s="1" t="n">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A394" s="1">
         <v>398</v>
       </c>
-      <c r="B394" t="n">
+      <c r="B394">
         <v>1255</v>
       </c>
-      <c r="C394" t="n">
+      <c r="C394">
         <v>24</v>
       </c>
     </row>
-    <row r="395">
-      <c r="A395" s="1" t="n">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A395" s="1">
         <v>399</v>
       </c>
-      <c r="B395" t="n">
+      <c r="B395">
         <v>1300</v>
       </c>
-      <c r="C395" t="n">
+      <c r="C395">
         <v>32</v>
       </c>
     </row>
-    <row r="396">
-      <c r="A396" s="1" t="n">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A396" s="1">
         <v>400</v>
       </c>
-      <c r="B396" t="n">
+      <c r="B396">
         <v>1380</v>
       </c>
-      <c r="C396" t="n">
+      <c r="C396">
         <v>32</v>
       </c>
     </row>
-    <row r="397">
-      <c r="A397" s="1" t="n">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A397" s="1">
         <v>401</v>
       </c>
-      <c r="B397" t="n">
+      <c r="B397">
         <v>1500</v>
       </c>
-      <c r="C397" t="n">
+      <c r="C397">
         <v>42</v>
       </c>
     </row>
-    <row r="398">
-      <c r="A398" s="1" t="n">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A398" s="1">
         <v>402</v>
       </c>
-      <c r="B398" t="n">
+      <c r="B398">
         <v>1500</v>
       </c>
-      <c r="C398" t="n">
+      <c r="C398">
         <v>34</v>
       </c>
     </row>
-    <row r="399">
-      <c r="A399" s="1" t="n">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A399" s="1">
         <v>403</v>
       </c>
-      <c r="B399" t="n">
+      <c r="B399">
         <v>1510</v>
       </c>
-      <c r="C399" t="n">
+      <c r="C399">
         <v>29</v>
       </c>
     </row>
-    <row r="400">
-      <c r="A400" s="1" t="n">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A400" s="1">
         <v>404</v>
       </c>
-      <c r="B400" t="n">
+      <c r="B400">
         <v>1550</v>
       </c>
-      <c r="C400" t="n">
+      <c r="C400">
         <v>30</v>
       </c>
     </row>
-    <row r="401">
-      <c r="A401" s="1" t="n">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A401" s="1">
         <v>405</v>
       </c>
-      <c r="B401" t="n">
+      <c r="B401">
         <v>1560</v>
       </c>
-      <c r="C401" t="n">
+      <c r="C401">
         <v>50</v>
       </c>
     </row>
-    <row r="402">
-      <c r="A402" s="1" t="n">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A402" s="1">
         <v>406</v>
       </c>
-      <c r="B402" t="n">
+      <c r="B402">
         <v>1580</v>
       </c>
-      <c r="C402" t="n">
+      <c r="C402">
         <v>35</v>
       </c>
     </row>
-    <row r="403">
-      <c r="A403" s="1" t="n">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A403" s="1">
         <v>407</v>
       </c>
-      <c r="B403" t="n">
+      <c r="B403">
         <v>1640</v>
       </c>
-      <c r="C403" t="n">
+      <c r="C403">
         <v>47</v>
       </c>
     </row>
-    <row r="404">
-      <c r="A404" s="1" t="n">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A404" s="1">
         <v>408</v>
       </c>
-      <c r="B404" t="n">
+      <c r="B404">
         <v>1650</v>
       </c>
-      <c r="C404" t="n">
+      <c r="C404">
         <v>40</v>
       </c>
     </row>
-    <row r="405">
-      <c r="A405" s="1" t="n">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A405" s="1">
         <v>409</v>
       </c>
-      <c r="B405" t="n">
+      <c r="B405">
         <v>1665</v>
       </c>
-      <c r="C405" t="n">
+      <c r="C405">
         <v>34</v>
       </c>
     </row>
-    <row r="406">
-      <c r="A406" s="1" t="n">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A406" s="1">
         <v>410</v>
       </c>
-      <c r="B406" t="n">
+      <c r="B406">
         <v>1865</v>
       </c>
-      <c r="C406" t="n">
+      <c r="C406">
         <v>55</v>
       </c>
     </row>
-    <row r="407">
-      <c r="A407" s="1" t="n">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A407" s="1">
         <v>411</v>
       </c>
-      <c r="B407" t="n">
+      <c r="B407">
         <v>1920</v>
       </c>
-      <c r="C407" t="n">
+      <c r="C407">
         <v>64</v>
       </c>
     </row>
-    <row r="408">
-      <c r="A408" s="1" t="n">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A408" s="1">
         <v>412</v>
       </c>
-      <c r="B408" t="n">
+      <c r="B408">
         <v>2000</v>
       </c>
-      <c r="C408" t="n">
+      <c r="C408">
         <v>42</v>
       </c>
     </row>
-    <row r="409">
-      <c r="A409" s="1" t="n">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A409" s="1">
         <v>413</v>
       </c>
-      <c r="B409" t="n">
+      <c r="B409">
         <v>2000</v>
       </c>
-      <c r="C409" t="n">
+      <c r="C409">
         <v>41</v>
       </c>
     </row>
-    <row r="410">
-      <c r="A410" s="1" t="n">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A410" s="1">
         <v>414</v>
       </c>
-      <c r="B410" t="n">
+      <c r="B410">
         <v>2130</v>
       </c>
-      <c r="C410" t="n">
+      <c r="C410">
         <v>73</v>
       </c>
     </row>
-    <row r="411">
-      <c r="A411" s="1" t="n">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A411" s="1">
         <v>415</v>
       </c>
-      <c r="B411" t="n">
+      <c r="B411">
         <v>2200</v>
       </c>
-      <c r="C411" t="n">
+      <c r="C411">
         <v>57</v>
       </c>
     </row>
-    <row r="412">
-      <c r="A412" s="1" t="n">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A412" s="1">
         <v>416</v>
       </c>
-      <c r="B412" t="n">
+      <c r="B412">
         <v>2300</v>
       </c>
-      <c r="C412" t="n">
+      <c r="C412">
         <v>80</v>
       </c>
     </row>
-    <row r="413">
-      <c r="A413" s="1" t="n">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A413" s="1">
         <v>417</v>
       </c>
-      <c r="B413" t="n">
+      <c r="B413">
         <v>2500</v>
       </c>
-      <c r="C413" t="n">
+      <c r="C413">
         <v>60</v>
       </c>
     </row>
-    <row r="414">
-      <c r="A414" s="1" t="n">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A414" s="1">
         <v>418</v>
       </c>
-      <c r="B414" t="n">
+      <c r="B414">
         <v>3750</v>
       </c>
-      <c r="C414" t="n">
+      <c r="C414">
         <v>70</v>
       </c>
     </row>
-    <row r="415">
-      <c r="A415" s="1" t="n">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A415" s="1">
         <v>419</v>
       </c>
-      <c r="B415" t="n">
+      <c r="B415">
         <v>3800</v>
       </c>
-      <c r="C415" t="n">
+      <c r="C415">
         <v>138</v>
       </c>
     </row>
-    <row r="416">
-      <c r="A416" s="1" t="n">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A416" s="1">
         <v>420</v>
       </c>
-      <c r="B416" t="n">
+      <c r="B416">
         <v>4100</v>
       </c>
-      <c r="C416" t="n">
+      <c r="C416">
         <v>127</v>
       </c>
     </row>
-    <row r="417">
-      <c r="A417" s="1" t="n">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A417" s="1">
         <v>421</v>
       </c>
-      <c r="B417" t="n">
+      <c r="B417">
         <v>4300</v>
       </c>
-      <c r="C417" t="n">
+      <c r="C417">
         <v>148</v>
       </c>
     </row>
-    <row r="418">
-      <c r="A418" s="1" t="n">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A418" s="1">
         <v>422</v>
       </c>
-      <c r="B418" t="n">
+      <c r="B418">
         <v>4500</v>
       </c>
-      <c r="C418" t="n">
+      <c r="C418">
         <v>115</v>
       </c>
     </row>
-    <row r="419">
-      <c r="A419" s="1" t="n">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A419" s="1">
         <v>424</v>
       </c>
-      <c r="B419" t="n">
+      <c r="B419">
         <v>637</v>
       </c>
-      <c r="C419" t="n">
+      <c r="C419">
         <v>14</v>
       </c>
     </row>
-    <row r="420">
-      <c r="A420" s="1" t="n">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A420" s="1">
         <v>425</v>
       </c>
-      <c r="B420" t="n">
+      <c r="B420">
         <v>680</v>
       </c>
-      <c r="C420" t="n">
+      <c r="C420">
         <v>14</v>
       </c>
     </row>
-    <row r="421">
-      <c r="A421" s="1" t="n">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A421" s="1">
         <v>426</v>
       </c>
-      <c r="B421" t="n">
+      <c r="B421">
         <v>700</v>
       </c>
-      <c r="C421" t="n">
+      <c r="C421">
         <v>18</v>
       </c>
     </row>
-    <row r="422">
-      <c r="A422" s="1" t="n">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A422" s="1">
         <v>427</v>
       </c>
-      <c r="B422" t="n">
+      <c r="B422">
         <v>960</v>
       </c>
-      <c r="C422" t="n">
+      <c r="C422">
         <v>20</v>
       </c>
     </row>
-    <row r="423">
-      <c r="A423" s="1" t="n">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A423" s="1">
         <v>428</v>
       </c>
-      <c r="B423" t="n">
+      <c r="B423">
         <v>775</v>
       </c>
-      <c r="C423" t="n">
+      <c r="C423">
         <v>20</v>
       </c>
     </row>
-    <row r="424">
-      <c r="A424" s="1" t="n">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A424" s="1">
         <v>429</v>
       </c>
-      <c r="B424" t="n">
+      <c r="B424">
         <v>1250</v>
       </c>
-      <c r="C424" t="n">
+      <c r="C424">
         <v>40</v>
       </c>
     </row>
-    <row r="425">
-      <c r="A425" s="1" t="n">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A425" s="1">
         <v>430</v>
       </c>
-      <c r="B425" t="n">
+      <c r="B425">
         <v>1380</v>
       </c>
-      <c r="C425" t="n">
+      <c r="C425">
         <v>30</v>
       </c>
     </row>
-    <row r="426">
-      <c r="A426" s="1" t="n">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A426" s="1">
         <v>431</v>
       </c>
-      <c r="B426" t="n">
+      <c r="B426">
         <v>1630</v>
       </c>
-      <c r="C426" t="n">
+      <c r="C426">
         <v>54</v>
       </c>
     </row>
-    <row r="427">
-      <c r="A427" s="1" t="n">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A427" s="1">
         <v>432</v>
       </c>
-      <c r="B427" t="n">
+      <c r="B427">
         <v>1650</v>
       </c>
-      <c r="C427" t="n">
+      <c r="C427">
         <v>50</v>
       </c>
     </row>
-    <row r="428">
-      <c r="A428" s="1" t="n">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A428" s="1">
         <v>433</v>
       </c>
-      <c r="B428" t="n">
+      <c r="B428">
         <v>1765</v>
       </c>
-      <c r="C428" t="n">
+      <c r="C428">
         <v>62</v>
       </c>
     </row>
-    <row r="429">
-      <c r="A429" s="1" t="n">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A429" s="1">
         <v>434</v>
       </c>
-      <c r="B429" t="n">
+      <c r="B429">
         <v>1900</v>
       </c>
-      <c r="C429" t="n">
+      <c r="C429">
         <v>64</v>
       </c>
     </row>
-    <row r="430">
-      <c r="A430" s="1" t="n">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A430" s="1">
         <v>435</v>
       </c>
-      <c r="B430" t="n">
+      <c r="B430">
         <v>1787</v>
       </c>
-      <c r="C430" t="n">
+      <c r="C430">
         <v>77</v>
       </c>
     </row>
-    <row r="431">
-      <c r="A431" s="1" t="n">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A431" s="1">
         <v>436</v>
       </c>
-      <c r="B431" t="n">
+      <c r="B431">
         <v>1920</v>
       </c>
-      <c r="C431" t="n">
+      <c r="C431">
         <v>64</v>
       </c>
     </row>
-    <row r="432">
-      <c r="A432" s="1" t="n">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A432" s="1">
         <v>437</v>
       </c>
-      <c r="B432" t="n">
+      <c r="B432">
         <v>2132</v>
       </c>
-      <c r="C432" t="n">
+      <c r="C432">
         <v>69</v>
       </c>
     </row>
-    <row r="433">
-      <c r="A433" s="1" t="n">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A433" s="1">
         <v>438</v>
       </c>
-      <c r="B433" t="n">
+      <c r="B433">
         <v>2132</v>
       </c>
-      <c r="C433" t="n">
+      <c r="C433">
         <v>69</v>
       </c>
     </row>
-    <row r="434">
-      <c r="A434" s="1" t="n">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A434" s="1">
         <v>439</v>
       </c>
-      <c r="B434" t="n">
+      <c r="B434">
         <v>2200</v>
       </c>
-      <c r="C434" t="n">
+      <c r="C434">
         <v>60</v>
       </c>
     </row>
-    <row r="435">
-      <c r="A435" s="1" t="n">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A435" s="1">
         <v>440</v>
       </c>
-      <c r="B435" t="n">
+      <c r="B435">
         <v>2272</v>
       </c>
-      <c r="C435" t="n">
+      <c r="C435">
         <v>69</v>
       </c>
     </row>
-    <row r="436">
-      <c r="A436" s="1" t="n">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A436" s="1">
         <v>441</v>
       </c>
-      <c r="B436" t="n">
+      <c r="B436">
         <v>2400</v>
       </c>
-      <c r="C436" t="n">
+      <c r="C436">
         <v>70</v>
       </c>
     </row>
-    <row r="437">
-      <c r="A437" s="1" t="n">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A437" s="1">
         <v>442</v>
       </c>
-      <c r="B437" t="n">
+      <c r="B437">
         <v>2350</v>
       </c>
-      <c r="C437" t="n">
+      <c r="C437">
         <v>70</v>
       </c>
     </row>
-    <row r="438">
-      <c r="A438" s="1" t="n">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A438" s="1">
         <v>443</v>
       </c>
-      <c r="B438" t="n">
+      <c r="B438">
         <v>2657</v>
       </c>
-      <c r="C438" t="n">
+      <c r="C438">
         <v>40</v>
       </c>
     </row>
-    <row r="439">
-      <c r="A439" s="1" t="n">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A439" s="1">
         <v>444</v>
       </c>
-      <c r="B439" t="n">
+      <c r="B439">
         <v>2999</v>
       </c>
-      <c r="C439" t="n">
+      <c r="C439">
         <v>76</v>
       </c>
     </row>
-    <row r="440">
-      <c r="A440" s="1" t="n">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A440" s="1">
         <v>445</v>
       </c>
-      <c r="B440" t="n">
+      <c r="B440">
         <v>3000</v>
       </c>
-      <c r="C440" t="n">
+      <c r="C440">
         <v>80</v>
       </c>
     </row>
-    <row r="441">
-      <c r="A441" s="1" t="n">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A441" s="1">
         <v>446</v>
       </c>
-      <c r="B441" t="n">
+      <c r="B441">
         <v>3460</v>
       </c>
-      <c r="C441" t="n">
+      <c r="C441">
         <v>103</v>
       </c>
     </row>
-    <row r="442">
-      <c r="A442" s="1" t="n">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A442" s="1">
         <v>447</v>
       </c>
-      <c r="B442" t="n">
+      <c r="B442">
         <v>3600</v>
       </c>
-      <c r="C442" t="n">
+      <c r="C442">
         <v>124</v>
       </c>
     </row>
-    <row r="443">
-      <c r="A443" s="1" t="n">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A443" s="1">
         <v>449</v>
       </c>
-      <c r="B443" t="n">
+      <c r="B443">
         <v>20000</v>
       </c>
-      <c r="C443" t="n">
+      <c r="C443">
         <v>180</v>
       </c>
     </row>
-    <row r="444">
-      <c r="A444" s="1" t="n">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A444" s="1">
         <v>450</v>
       </c>
-      <c r="B444" t="n">
+      <c r="B444">
         <v>2290</v>
       </c>
-      <c r="C444" t="n">
+      <c r="C444">
         <v>70</v>
       </c>
     </row>
-    <row r="445">
-      <c r="A445" s="1" t="n">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A445" s="1">
         <v>451</v>
       </c>
-      <c r="B445" t="n">
+      <c r="B445">
         <v>2927</v>
       </c>
-      <c r="C445" t="n">
+      <c r="C445">
         <v>116</v>
       </c>
     </row>
-    <row r="446">
-      <c r="A446" s="1" t="n">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A446" s="1">
         <v>452</v>
       </c>
-      <c r="B446" t="n">
+      <c r="B446">
         <v>700</v>
       </c>
-      <c r="C446" t="n">
+      <c r="C446">
         <v>14</v>
       </c>
     </row>
-    <row r="447">
-      <c r="A447" s="1" t="n">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A447" s="1">
         <v>453</v>
       </c>
-      <c r="B447" t="n">
+      <c r="B447">
         <v>755</v>
       </c>
-      <c r="C447" t="n">
+      <c r="C447">
         <v>19</v>
       </c>
     </row>
-    <row r="448">
-      <c r="A448" s="1" t="n">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A448" s="1">
         <v>454</v>
       </c>
-      <c r="B448" t="n">
+      <c r="B448">
         <v>990</v>
       </c>
-      <c r="C448" t="n">
+      <c r="C448">
         <v>24</v>
       </c>
     </row>
-    <row r="449">
-      <c r="A449" s="1" t="n">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A449" s="1">
         <v>455</v>
       </c>
-      <c r="B449" t="n">
+      <c r="B449">
         <v>1058</v>
       </c>
-      <c r="C449" t="n">
+      <c r="C449">
         <v>21</v>
       </c>
     </row>
-    <row r="450">
-      <c r="A450" s="1" t="n">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A450" s="1">
         <v>456</v>
       </c>
-      <c r="B450" t="n">
+      <c r="B450">
         <v>1095</v>
       </c>
-      <c r="C450" t="n">
+      <c r="C450">
         <v>20</v>
       </c>
     </row>
-    <row r="451">
-      <c r="A451" s="1" t="n">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A451" s="1">
         <v>457</v>
       </c>
-      <c r="B451" t="n">
+      <c r="B451">
         <v>1100</v>
       </c>
-      <c r="C451" t="n">
+      <c r="C451">
         <v>37</v>
       </c>
     </row>
-    <row r="452">
-      <c r="A452" s="1" t="n">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A452" s="1">
         <v>458</v>
       </c>
-      <c r="B452" t="n">
+      <c r="B452">
         <v>1280</v>
       </c>
-      <c r="C452" t="n">
+      <c r="C452">
         <v>29</v>
       </c>
     </row>
-    <row r="453">
-      <c r="A453" s="1" t="n">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A453" s="1">
         <v>459</v>
       </c>
-      <c r="B453" t="n">
+      <c r="B453">
         <v>1350</v>
       </c>
-      <c r="C453" t="n">
+      <c r="C453">
         <v>35</v>
       </c>
     </row>
-    <row r="454">
-      <c r="A454" s="1" t="n">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A454" s="1">
         <v>460</v>
       </c>
-      <c r="B454" t="n">
+      <c r="B454">
         <v>1400</v>
       </c>
-      <c r="C454" t="n">
+      <c r="C454">
         <v>45</v>
       </c>
     </row>
-    <row r="455">
-      <c r="A455" s="1" t="n">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A455" s="1">
         <v>461</v>
       </c>
-      <c r="B455" t="n">
+      <c r="B455">
         <v>1550</v>
       </c>
-      <c r="C455" t="n">
+      <c r="C455">
         <v>33</v>
       </c>
     </row>
-    <row r="456">
-      <c r="A456" s="1" t="n">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A456" s="1">
         <v>462</v>
       </c>
-      <c r="B456" t="n">
+      <c r="B456">
         <v>1900</v>
       </c>
-      <c r="C456" t="n">
+      <c r="C456">
         <v>64</v>
       </c>
     </row>
-    <row r="457">
-      <c r="A457" s="1" t="n">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A457" s="1">
         <v>463</v>
       </c>
-      <c r="B457" t="n">
+      <c r="B457">
         <v>2200</v>
       </c>
-      <c r="C457" t="n">
+      <c r="C457">
         <v>55</v>
       </c>
     </row>
-    <row r="458">
-      <c r="A458" s="1" t="n">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A458" s="1">
         <v>464</v>
       </c>
-      <c r="B458" t="n">
+      <c r="B458">
         <v>3140</v>
       </c>
-      <c r="C458" t="n">
+      <c r="C458">
         <v>100</v>
       </c>
     </row>
-    <row r="459">
-      <c r="A459" s="1" t="n">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A459" s="1">
         <v>465</v>
       </c>
-      <c r="B459" t="n">
+      <c r="B459">
         <v>600</v>
       </c>
-      <c r="C459" t="n">
+      <c r="C459">
         <v>20</v>
       </c>
     </row>
-    <row r="460">
-      <c r="A460" s="1" t="n">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A460" s="1">
         <v>466</v>
       </c>
-      <c r="B460" t="n">
+      <c r="B460">
         <v>600</v>
       </c>
-      <c r="C460" t="n">
+      <c r="C460">
         <v>16</v>
       </c>
     </row>
-    <row r="461">
-      <c r="A461" s="1" t="n">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A461" s="1">
         <v>467</v>
       </c>
-      <c r="B461" t="n">
+      <c r="B461">
         <v>890</v>
       </c>
-      <c r="C461" t="n">
+      <c r="C461">
         <v>20</v>
       </c>
     </row>
-    <row r="462">
-      <c r="A462" s="1" t="n">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A462" s="1">
         <v>468</v>
       </c>
-      <c r="B462" t="n">
+      <c r="B462">
         <v>1050</v>
       </c>
-      <c r="C462" t="n">
+      <c r="C462">
         <v>30</v>
       </c>
     </row>
-    <row r="463">
-      <c r="A463" s="1" t="n">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A463" s="1">
         <v>469</v>
       </c>
-      <c r="B463" t="n">
+      <c r="B463">
         <v>1100</v>
       </c>
-      <c r="C463" t="n">
+      <c r="C463">
         <v>31</v>
       </c>
     </row>
-    <row r="464">
-      <c r="A464" s="1" t="n">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A464" s="1">
         <v>470</v>
       </c>
-      <c r="B464" t="n">
+      <c r="B464">
         <v>1650</v>
       </c>
-      <c r="C464" t="n">
+      <c r="C464">
         <v>49</v>
       </c>
     </row>
-    <row r="465">
-      <c r="A465" s="1" t="n">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A465" s="1">
         <v>471</v>
       </c>
-      <c r="B465" t="n">
+      <c r="B465">
         <v>2090</v>
       </c>
-      <c r="C465" t="n">
+      <c r="C465">
         <v>73</v>
       </c>
     </row>
-    <row r="466">
-      <c r="A466" s="1" t="n">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A466" s="1">
         <v>472</v>
       </c>
-      <c r="B466" t="n">
+      <c r="B466">
         <v>6300</v>
       </c>
-      <c r="C466" t="n">
+      <c r="C466">
         <v>112</v>
       </c>
     </row>
-    <row r="467">
-      <c r="A467" s="1" t="n">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A467" s="1">
         <v>473</v>
       </c>
-      <c r="B467" t="n">
+      <c r="B467">
         <v>930</v>
       </c>
-      <c r="C467" t="n">
+      <c r="C467">
         <v>16</v>
       </c>
     </row>
-    <row r="468">
-      <c r="A468" s="1" t="n">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A468" s="1">
         <v>474</v>
       </c>
-      <c r="B468" t="n">
+      <c r="B468">
         <v>1980</v>
       </c>
-      <c r="C468" t="n">
+      <c r="C468">
         <v>84</v>
       </c>
     </row>
-    <row r="469">
-      <c r="A469" s="1" t="n">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A469" s="1">
         <v>475</v>
       </c>
-      <c r="B469" t="n">
+      <c r="B469">
         <v>885</v>
       </c>
-      <c r="C469" t="n">
+      <c r="C469">
         <v>23</v>
       </c>
     </row>
-    <row r="470">
-      <c r="A470" s="1" t="n">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A470" s="1">
         <v>476</v>
       </c>
-      <c r="B470" t="n">
+      <c r="B470">
         <v>1060</v>
       </c>
-      <c r="C470" t="n">
+      <c r="C470">
         <v>47</v>
       </c>
     </row>
-    <row r="471">
-      <c r="A471" s="1" t="n">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A471" s="1">
         <v>477</v>
       </c>
-      <c r="B471" t="n">
+      <c r="B471">
         <v>1200</v>
       </c>
-      <c r="C471" t="n">
+      <c r="C471">
         <v>48</v>
       </c>
     </row>
-    <row r="472">
-      <c r="A472" s="1" t="n">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A472" s="1">
         <v>478</v>
       </c>
-      <c r="B472" t="n">
+      <c r="B472">
         <v>1500</v>
       </c>
-      <c r="C472" t="n">
+      <c r="C472">
         <v>38</v>
       </c>
     </row>
-    <row r="473">
-      <c r="A473" s="1" t="n">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A473" s="1">
         <v>479</v>
       </c>
-      <c r="B473" t="n">
+      <c r="B473">
         <v>890</v>
       </c>
-      <c r="C473" t="n">
+      <c r="C473">
         <v>20</v>
       </c>
     </row>
-    <row r="474">
-      <c r="A474" s="1" t="n">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A474" s="1">
         <v>480</v>
       </c>
-      <c r="B474" t="n">
+      <c r="B474">
         <v>1300</v>
       </c>
-      <c r="C474" t="n">
+      <c r="C474">
         <v>42</v>
       </c>
     </row>
-    <row r="475">
-      <c r="A475" s="1" t="n">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A475" s="1">
         <v>481</v>
       </c>
-      <c r="B475" t="n">
+      <c r="B475">
         <v>900</v>
       </c>
-      <c r="C475" t="n">
+      <c r="C475">
         <v>29</v>
       </c>
     </row>
-    <row r="476">
-      <c r="A476" s="1" t="n">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A476" s="1">
         <v>482</v>
       </c>
-      <c r="B476" t="n">
+      <c r="B476">
         <v>1150</v>
       </c>
-      <c r="C476" t="n">
+      <c r="C476">
         <v>24</v>
       </c>
     </row>
-    <row r="477">
-      <c r="A477" s="1" t="n">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A477" s="1">
         <v>483</v>
       </c>
-      <c r="B477" t="n">
+      <c r="B477">
         <v>840</v>
       </c>
-      <c r="C477" t="n">
+      <c r="C477">
         <v>22</v>
       </c>
     </row>
-    <row r="478">
-      <c r="A478" s="1" t="n">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A478" s="1">
         <v>484</v>
       </c>
-      <c r="B478" t="n">
+      <c r="B478">
         <v>928</v>
       </c>
-      <c r="C478" t="n">
+      <c r="C478">
         <v>29</v>
       </c>
     </row>
-    <row r="479">
-      <c r="A479" s="1" t="n">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A479" s="1">
         <v>485</v>
       </c>
-      <c r="B479" t="n">
+      <c r="B479">
         <v>981</v>
       </c>
-      <c r="C479" t="n">
+      <c r="C479">
         <v>30</v>
       </c>
     </row>
-    <row r="480">
-      <c r="A480" s="1" t="n">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A480" s="1">
         <v>486</v>
       </c>
-      <c r="B480" t="n">
+      <c r="B480">
         <v>1180</v>
       </c>
-      <c r="C480" t="n">
+      <c r="C480">
         <v>31</v>
       </c>
     </row>
-    <row r="481">
-      <c r="A481" s="1" t="n">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A481" s="1">
         <v>487</v>
       </c>
-      <c r="B481" t="n">
+      <c r="B481">
         <v>1198</v>
       </c>
-      <c r="C481" t="n">
+      <c r="C481">
         <v>33</v>
       </c>
     </row>
-    <row r="482">
-      <c r="A482" s="1" t="n">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A482" s="1">
         <v>488</v>
       </c>
-      <c r="B482" t="n">
+      <c r="B482">
         <v>1450</v>
       </c>
-      <c r="C482" t="n">
+      <c r="C482">
         <v>47</v>
       </c>
     </row>
-    <row r="483">
-      <c r="A483" s="1" t="n">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A483" s="1">
         <v>489</v>
       </c>
-      <c r="B483" t="n">
+      <c r="B483">
         <v>3000</v>
       </c>
-      <c r="C483" t="n">
+      <c r="C483">
         <v>50</v>
       </c>
     </row>
-    <row r="484">
-      <c r="A484" s="1" t="n">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A484" s="1">
         <v>490</v>
       </c>
-      <c r="B484" t="n">
+      <c r="B484">
         <v>875</v>
       </c>
-      <c r="C484" t="n">
+      <c r="C484">
         <v>18</v>
       </c>
     </row>
-    <row r="485">
-      <c r="A485" s="1" t="n">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A485" s="1">
         <v>491</v>
       </c>
-      <c r="B485" t="n">
+      <c r="B485">
         <v>998</v>
       </c>
-      <c r="C485" t="n">
+      <c r="C485">
         <v>34</v>
       </c>
     </row>
-    <row r="486">
-      <c r="A486" s="1" t="n">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A486" s="1">
         <v>492</v>
       </c>
-      <c r="B486" t="n">
+      <c r="B486">
         <v>1000</v>
       </c>
-      <c r="C486" t="n">
+      <c r="C486">
         <v>25</v>
       </c>
     </row>
-    <row r="487">
-      <c r="A487" s="1" t="n">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A487" s="1">
         <v>493</v>
       </c>
-      <c r="B487" t="n">
+      <c r="B487">
         <v>1250</v>
       </c>
-      <c r="C487" t="n">
+      <c r="C487">
         <v>31</v>
       </c>
     </row>
-    <row r="488">
-      <c r="A488" s="1" t="n">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A488" s="1">
         <v>494</v>
       </c>
-      <c r="B488" t="n">
+      <c r="B488">
         <v>1480</v>
       </c>
-      <c r="C488" t="n">
+      <c r="C488">
         <v>40</v>
       </c>
     </row>
-    <row r="489">
-      <c r="A489" s="1" t="n">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A489" s="1">
         <v>495</v>
       </c>
-      <c r="B489" t="n">
+      <c r="B489">
         <v>1900</v>
       </c>
-      <c r="C489" t="n">
+      <c r="C489">
         <v>46</v>
       </c>
     </row>
-    <row r="490">
-      <c r="A490" s="1" t="n">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A490" s="1">
         <v>496</v>
       </c>
-      <c r="B490" t="n">
+      <c r="B490">
         <v>2500</v>
       </c>
-      <c r="C490" t="n">
+      <c r="C490">
         <v>70</v>
       </c>
     </row>
-    <row r="491">
-      <c r="A491" s="1" t="n">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A491" s="1">
         <v>497</v>
       </c>
-      <c r="B491" t="n">
+      <c r="B491">
         <v>950</v>
       </c>
-      <c r="C491" t="n">
+      <c r="C491">
         <v>28</v>
       </c>
     </row>
-    <row r="492">
-      <c r="A492" s="1" t="n">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A492" s="1">
         <v>498</v>
       </c>
-      <c r="B492" t="n">
+      <c r="B492">
         <v>1180</v>
       </c>
-      <c r="C492" t="n">
+      <c r="C492">
         <v>27</v>
       </c>
     </row>
-    <row r="493">
-      <c r="A493" s="1" t="n">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A493" s="1">
         <v>499</v>
       </c>
-      <c r="B493" t="n">
+      <c r="B493">
         <v>1550</v>
       </c>
-      <c r="C493" t="n">
+      <c r="C493">
         <v>40</v>
       </c>
     </row>
-    <row r="494">
-      <c r="A494" s="1" t="n">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A494" s="1">
         <v>500</v>
       </c>
-      <c r="B494" t="n">
+      <c r="B494">
         <v>1333</v>
       </c>
-      <c r="C494" t="n">
+      <c r="C494">
         <v>41</v>
       </c>
     </row>
-    <row r="495">
-      <c r="A495" s="1" t="n">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A495" s="1">
         <v>501</v>
       </c>
-      <c r="B495" t="n">
+      <c r="B495">
         <v>1580</v>
       </c>
-      <c r="C495" t="n">
+      <c r="C495">
         <v>40</v>
       </c>
     </row>
-    <row r="496">
-      <c r="A496" s="1" t="n">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A496" s="1">
         <v>502</v>
       </c>
-      <c r="B496" t="n">
+      <c r="B496">
         <v>850</v>
       </c>
-      <c r="C496" t="n">
+      <c r="C496">
         <v>27</v>
       </c>
     </row>
-    <row r="497">
-      <c r="A497" s="1" t="n">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A497" s="1">
         <v>503</v>
       </c>
-      <c r="B497" t="n">
+      <c r="B497">
         <v>488</v>
       </c>
-      <c r="C497" t="n">
+      <c r="C497">
         <v>13</v>
       </c>
     </row>
-    <row r="498">
-      <c r="A498" s="1" t="n">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A498" s="1">
         <v>504</v>
       </c>
-      <c r="B498" t="n">
+      <c r="B498">
         <v>619</v>
       </c>
-      <c r="C498" t="n">
+      <c r="C498">
         <v>18</v>
       </c>
     </row>
-    <row r="499">
-      <c r="A499" s="1" t="n">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A499" s="1">
         <v>505</v>
       </c>
-      <c r="B499" t="n">
+      <c r="B499">
         <v>820</v>
       </c>
-      <c r="C499" t="n">
+      <c r="C499">
         <v>23</v>
       </c>
     </row>
-    <row r="500">
-      <c r="A500" s="1" t="n">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A500" s="1">
         <v>506</v>
       </c>
-      <c r="B500" t="n">
+      <c r="B500">
         <v>1350</v>
       </c>
-      <c r="C500" t="n">
+      <c r="C500">
         <v>32</v>
       </c>
     </row>
-    <row r="501">
-      <c r="A501" s="1" t="n">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A501" s="1">
         <v>507</v>
       </c>
-      <c r="B501" t="n">
+      <c r="B501">
         <v>1475</v>
       </c>
-      <c r="C501" t="n">
+      <c r="C501">
         <v>57</v>
       </c>
     </row>
-    <row r="502">
-      <c r="A502" s="1" t="n">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A502" s="1">
         <v>508</v>
       </c>
-      <c r="B502" t="n">
+      <c r="B502">
         <v>1397</v>
       </c>
-      <c r="C502" t="n">
+      <c r="C502">
         <v>38</v>
       </c>
     </row>
-    <row r="503">
-      <c r="A503" s="1" t="n">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A503" s="1">
         <v>509</v>
       </c>
-      <c r="B503" t="n">
+      <c r="B503">
         <v>1460</v>
       </c>
-      <c r="C503" t="n">
+      <c r="C503">
         <v>52</v>
       </c>
     </row>
-    <row r="504">
-      <c r="A504" s="1" t="n">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A504" s="1">
         <v>510</v>
       </c>
-      <c r="B504" t="n">
+      <c r="B504">
         <v>3200</v>
       </c>
-      <c r="C504" t="n">
+      <c r="C504">
         <v>114</v>
       </c>
     </row>
-    <row r="505">
-      <c r="A505" s="1" t="n">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A505" s="1">
         <v>511</v>
       </c>
-      <c r="B505" t="n">
+      <c r="B505">
         <v>5000</v>
       </c>
-      <c r="C505" t="n">
+      <c r="C505">
         <v>136</v>
       </c>
     </row>
-    <row r="506">
-      <c r="A506" s="1" t="n">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A506" s="1">
         <v>512</v>
       </c>
-      <c r="B506" t="n">
+      <c r="B506">
         <v>790</v>
       </c>
-      <c r="C506" t="n">
+      <c r="C506">
         <v>22</v>
       </c>
     </row>
-    <row r="507">
-      <c r="A507" s="1" t="n">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A507" s="1">
         <v>513</v>
       </c>
-      <c r="B507" t="n">
+      <c r="B507">
         <v>800</v>
       </c>
-      <c r="C507" t="n">
+      <c r="C507">
         <v>14</v>
       </c>
     </row>
-    <row r="508">
-      <c r="A508" s="1" t="n">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A508" s="1">
         <v>514</v>
       </c>
-      <c r="B508" t="n">
+      <c r="B508">
         <v>810</v>
       </c>
-      <c r="C508" t="n">
+      <c r="C508">
         <v>18</v>
       </c>
     </row>
-    <row r="509">
-      <c r="A509" s="1" t="n">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A509" s="1">
         <v>515</v>
       </c>
-      <c r="B509" t="n">
+      <c r="B509">
         <v>940</v>
       </c>
-      <c r="C509" t="n">
+      <c r="C509">
         <v>26</v>
       </c>
     </row>
-    <row r="510">
-      <c r="A510" s="1" t="n">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A510" s="1">
         <v>516</v>
       </c>
-      <c r="B510" t="n">
+      <c r="B510">
         <v>898</v>
       </c>
-      <c r="C510" t="n">
+      <c r="C510">
         <v>27</v>
       </c>
     </row>
-    <row r="511">
-      <c r="A511" s="1" t="n">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A511" s="1">
         <v>517</v>
       </c>
-      <c r="B511" t="n">
+      <c r="B511">
         <v>1137</v>
       </c>
-      <c r="C511" t="n">
+      <c r="C511">
         <v>33</v>
       </c>
     </row>
-    <row r="512">
-      <c r="A512" s="1" t="n">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A512" s="1">
         <v>518</v>
       </c>
-      <c r="B512" t="n">
+      <c r="B512">
         <v>810</v>
       </c>
-      <c r="C512" t="n">
+      <c r="C512">
         <v>18</v>
       </c>
     </row>
-    <row r="513">
-      <c r="A513" s="1" t="n">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A513" s="1">
         <v>519</v>
       </c>
-      <c r="B513" t="n">
+      <c r="B513">
         <v>940</v>
       </c>
-      <c r="C513" t="n">
+      <c r="C513">
         <v>26</v>
       </c>
     </row>
-    <row r="514">
-      <c r="A514" s="1" t="n">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A514" s="1">
         <v>520</v>
       </c>
-      <c r="B514" t="n">
+      <c r="B514">
         <v>898</v>
       </c>
-      <c r="C514" t="n">
+      <c r="C514">
         <v>27</v>
       </c>
     </row>
-    <row r="515">
-      <c r="A515" s="1" t="n">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A515" s="1">
         <v>521</v>
       </c>
-      <c r="B515" t="n">
+      <c r="B515">
         <v>1137</v>
       </c>
-      <c r="C515" t="n">
+      <c r="C515">
         <v>33</v>
       </c>
     </row>
-    <row r="516">
-      <c r="A516" s="1" t="n">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A516" s="1">
         <v>522</v>
       </c>
-      <c r="B516" t="n">
+      <c r="B516">
         <v>1600</v>
       </c>
-      <c r="C516" t="n">
+      <c r="C516">
         <v>60</v>
       </c>
     </row>
-    <row r="517">
-      <c r="A517" s="1" t="n">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A517" s="1">
         <v>523</v>
       </c>
-      <c r="B517" t="n">
+      <c r="B517">
         <v>2097</v>
       </c>
-      <c r="C517" t="n">
+      <c r="C517">
         <v>58</v>
       </c>
     </row>
-    <row r="518">
-      <c r="A518" s="1" t="n">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A518" s="1">
         <v>524</v>
       </c>
-      <c r="B518" t="n">
+      <c r="B518">
         <v>733</v>
       </c>
-      <c r="C518" t="n">
+      <c r="C518">
         <v>20</v>
       </c>
     </row>
-    <row r="519">
-      <c r="A519" s="1" t="n">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A519" s="1">
         <v>526</v>
       </c>
-      <c r="B519" t="n">
+      <c r="B519">
         <v>1166</v>
       </c>
-      <c r="C519" t="n">
+      <c r="C519">
         <v>27</v>
       </c>
     </row>
-    <row r="520">
-      <c r="A520" s="1" t="n">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A520" s="1">
         <v>527</v>
       </c>
-      <c r="B520" t="n">
+      <c r="B520">
         <v>1500</v>
       </c>
-      <c r="C520" t="n">
+      <c r="C520">
         <v>38</v>
       </c>
     </row>
-    <row r="521">
-      <c r="A521" s="1" t="n">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A521" s="1">
         <v>528</v>
       </c>
-      <c r="B521" t="n">
+      <c r="B521">
         <v>1900</v>
       </c>
-      <c r="C521" t="n">
+      <c r="C521">
         <v>45</v>
       </c>
     </row>
-    <row r="522">
-      <c r="A522" s="1" t="n">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A522" s="1">
         <v>529</v>
       </c>
-      <c r="B522" t="n">
+      <c r="B522">
         <v>1900</v>
       </c>
-      <c r="C522" t="n">
+      <c r="C522">
         <v>64</v>
       </c>
     </row>
-    <row r="523">
-      <c r="A523" s="1" t="n">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A523" s="1">
         <v>530</v>
       </c>
-      <c r="B523" t="n">
+      <c r="B523">
         <v>1950</v>
       </c>
-      <c r="C523" t="n">
+      <c r="C523">
         <v>45</v>
       </c>
     </row>
-    <row r="524">
-      <c r="A524" s="1" t="n">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A524" s="1">
         <v>531</v>
       </c>
-      <c r="B524" t="n">
+      <c r="B524">
         <v>2000</v>
       </c>
-      <c r="C524" t="n">
+      <c r="C524">
         <v>65</v>
       </c>
     </row>
-    <row r="525">
-      <c r="A525" s="1" t="n">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A525" s="1">
         <v>532</v>
       </c>
-      <c r="B525" t="n">
+      <c r="B525">
         <v>2950</v>
       </c>
-      <c r="C525" t="n">
+      <c r="C525">
         <v>95</v>
       </c>
     </row>
-    <row r="526">
-      <c r="A526" s="1" t="n">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A526" s="1">
         <v>533</v>
       </c>
-      <c r="B526" t="n">
+      <c r="B526">
         <v>1200</v>
       </c>
-      <c r="C526" t="n">
+      <c r="C526">
         <v>20</v>
       </c>
     </row>
-    <row r="527">
-      <c r="A527" s="1" t="n">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A527" s="1">
         <v>534</v>
       </c>
-      <c r="B527" t="n">
+      <c r="B527">
         <v>1300</v>
       </c>
-      <c r="C527" t="n">
+      <c r="C527">
         <v>20</v>
       </c>
     </row>
-    <row r="528">
-      <c r="A528" s="1" t="n">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A528" s="1">
         <v>535</v>
       </c>
-      <c r="B528" t="n">
+      <c r="B528">
         <v>1400</v>
       </c>
-      <c r="C528" t="n">
+      <c r="C528">
         <v>20</v>
       </c>
     </row>
-    <row r="529">
-      <c r="A529" s="1" t="n">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A529" s="1">
         <v>536</v>
       </c>
-      <c r="B529" t="n">
+      <c r="B529">
         <v>1690</v>
       </c>
-      <c r="C529" t="n">
+      <c r="C529">
         <v>58</v>
       </c>
     </row>
-    <row r="530">
-      <c r="A530" s="1" t="n">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A530" s="1">
         <v>537</v>
       </c>
-      <c r="B530" t="n">
+      <c r="B530">
         <v>1940</v>
       </c>
-      <c r="C530" t="n">
+      <c r="C530">
         <v>40</v>
       </c>
     </row>
-    <row r="531">
-      <c r="A531" s="1" t="n">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A531" s="1">
         <v>538</v>
       </c>
-      <c r="B531" t="n">
+      <c r="B531">
         <v>2100</v>
       </c>
-      <c r="C531" t="n">
+      <c r="C531">
         <v>70</v>
       </c>
     </row>
-    <row r="532">
-      <c r="A532" s="1" t="n">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A532" s="1">
         <v>539</v>
       </c>
-      <c r="B532" t="n">
+      <c r="B532">
         <v>2490</v>
       </c>
-      <c r="C532" t="n">
+      <c r="C532">
         <v>70</v>
       </c>
     </row>
-    <row r="533">
-      <c r="A533" s="1" t="n">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A533" s="1">
         <v>540</v>
       </c>
-      <c r="B533" t="n">
+      <c r="B533">
         <v>1490</v>
       </c>
-      <c r="C533" t="n">
+      <c r="C533">
         <v>48</v>
       </c>
     </row>
-    <row r="534">
-      <c r="A534" s="1" t="n">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A534" s="1">
         <v>541</v>
       </c>
-      <c r="B534" t="n">
+      <c r="B534">
         <v>2020</v>
       </c>
-      <c r="C534" t="n">
+      <c r="C534">
         <v>58</v>
       </c>
     </row>
-    <row r="535">
-      <c r="A535" s="1" t="n">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A535" s="1">
         <v>542</v>
       </c>
-      <c r="B535" t="n">
+      <c r="B535">
         <v>2050</v>
       </c>
-      <c r="C535" t="n">
+      <c r="C535">
         <v>70</v>
       </c>
     </row>
-    <row r="536">
-      <c r="A536" s="1" t="n">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A536" s="1">
         <v>543</v>
       </c>
-      <c r="B536" t="n">
+      <c r="B536">
         <v>1220</v>
       </c>
-      <c r="C536" t="n">
+      <c r="C536">
         <v>42</v>
       </c>
     </row>
-    <row r="537">
-      <c r="A537" s="1" t="n">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A537" s="1">
         <v>544</v>
       </c>
-      <c r="B537" t="n">
+      <c r="B537">
         <v>1610</v>
       </c>
-      <c r="C537" t="n">
+      <c r="C537">
         <v>44</v>
       </c>
     </row>

--- a/data/house/house.xlsx
+++ b/data/house/house.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>loyers_m2</t>
+          <t>loyer_m2</t>
         </is>
       </c>
     </row>

--- a/data/house/house.xlsx
+++ b/data/house/house.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D537"/>
+  <dimension ref="A1:D546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>loyer_m2</t>
+          <t>loyers_m2</t>
         </is>
       </c>
     </row>
@@ -606,1239 +606,1239 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>980</v>
+        <v>16000</v>
       </c>
       <c r="C13" t="n">
-        <v>26</v>
+        <v>347</v>
       </c>
       <c r="D13" t="n">
-        <v>37.69230769230769</v>
+        <v>46.10951008645533</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1250</v>
+        <v>980</v>
       </c>
       <c r="C14" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
-        <v>34.72222222222222</v>
+        <v>37.69230769230769</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>752</v>
+        <v>1250</v>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D15" t="n">
-        <v>39.57894736842105</v>
+        <v>34.72222222222222</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>815</v>
+        <v>752</v>
       </c>
       <c r="C16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" t="n">
-        <v>40.75</v>
+        <v>39.57894736842105</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1147</v>
+        <v>815</v>
       </c>
       <c r="C17" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>45.88</v>
+        <v>40.75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1500</v>
+        <v>1147</v>
       </c>
       <c r="C18" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D18" t="n">
-        <v>42.85714285714285</v>
+        <v>45.88</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3587</v>
+        <v>1500</v>
       </c>
       <c r="C19" t="n">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="D19" t="n">
-        <v>29.89166666666667</v>
+        <v>42.85714285714285</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1355</v>
+        <v>3587</v>
       </c>
       <c r="C20" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D20" t="n">
-        <v>33.875</v>
+        <v>29.89166666666667</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1245</v>
+        <v>1355</v>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D21" t="n">
-        <v>41.5</v>
+        <v>33.875</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1100</v>
+        <v>1245</v>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>44</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1120</v>
+        <v>1100</v>
       </c>
       <c r="C23" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D23" t="n">
-        <v>53.33333333333334</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1225</v>
+        <v>1120</v>
       </c>
       <c r="C24" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D24" t="n">
-        <v>27.84090909090909</v>
+        <v>53.33333333333334</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1250</v>
+        <v>1225</v>
       </c>
       <c r="C25" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D25" t="n">
-        <v>35.71428571428572</v>
+        <v>27.84090909090909</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1280</v>
+        <v>1250</v>
       </c>
       <c r="C26" t="n">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D26" t="n">
-        <v>23.7037037037037</v>
+        <v>35.71428571428572</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1114</v>
+        <v>1280</v>
       </c>
       <c r="C27" t="n">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D27" t="n">
-        <v>28.56410256410257</v>
+        <v>23.7037037037037</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1290</v>
+        <v>1114</v>
       </c>
       <c r="C28" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D28" t="n">
-        <v>37.94117647058823</v>
+        <v>28.56410256410257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="C29" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D29" t="n">
-        <v>46.42857142857143</v>
+        <v>37.94117647058823</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="n">
         <v>1300</v>
       </c>
       <c r="C30" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D30" t="n">
-        <v>40.625</v>
+        <v>46.42857142857143</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D31" t="n">
-        <v>32.6</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1340</v>
+        <v>1304</v>
       </c>
       <c r="C32" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D32" t="n">
-        <v>31.90476190476191</v>
+        <v>32.6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="C33" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D33" t="n">
-        <v>43.35483870967742</v>
+        <v>31.90476190476191</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1290</v>
+        <v>1344</v>
       </c>
       <c r="C34" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D34" t="n">
-        <v>39.09090909090909</v>
+        <v>43.35483870967742</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1364</v>
+        <v>1290</v>
       </c>
       <c r="C35" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D35" t="n">
-        <v>34.97435897435897</v>
+        <v>39.09090909090909</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1400</v>
+        <v>1364</v>
       </c>
       <c r="C36" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D36" t="n">
-        <v>29.78723404255319</v>
+        <v>34.97435897435897</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="n">
         <v>1400</v>
       </c>
       <c r="C37" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D37" t="n">
-        <v>42.42424242424242</v>
+        <v>29.78723404255319</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1420</v>
+        <v>1400</v>
       </c>
       <c r="C38" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D38" t="n">
-        <v>38.37837837837838</v>
+        <v>42.42424242424242</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="n">
         <v>1420</v>
       </c>
       <c r="C39" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D39" t="n">
-        <v>33.80952380952381</v>
+        <v>38.37837837837838</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1445</v>
+        <v>1420</v>
       </c>
       <c r="C40" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D40" t="n">
-        <v>31.41304347826087</v>
+        <v>33.80952380952381</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1500</v>
+        <v>1445</v>
       </c>
       <c r="C41" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D41" t="n">
-        <v>40.54054054054054</v>
+        <v>31.41304347826087</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1544</v>
+        <v>1500</v>
       </c>
       <c r="C42" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D42" t="n">
-        <v>33.56521739130435</v>
+        <v>40.54054054054054</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1550</v>
+        <v>1544</v>
       </c>
       <c r="C43" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D43" t="n">
-        <v>36.90476190476191</v>
+        <v>33.56521739130435</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="C44" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D44" t="n">
-        <v>30.61224489795918</v>
+        <v>36.90476190476191</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1612</v>
+        <v>1500</v>
       </c>
       <c r="C45" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D45" t="n">
-        <v>33.58333333333334</v>
+        <v>30.61224489795918</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1650</v>
+        <v>1612</v>
       </c>
       <c r="C46" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D46" t="n">
-        <v>33</v>
+        <v>33.58333333333334</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1533</v>
+        <v>1650</v>
       </c>
       <c r="C47" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D47" t="n">
-        <v>28.38888888888889</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1663</v>
+        <v>1533</v>
       </c>
       <c r="C48" t="n">
         <v>54</v>
       </c>
       <c r="D48" t="n">
-        <v>30.7962962962963</v>
+        <v>28.38888888888889</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1584</v>
+        <v>1663</v>
       </c>
       <c r="C49" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D49" t="n">
-        <v>35.2</v>
+        <v>30.7962962962963</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1680</v>
+        <v>1584</v>
       </c>
       <c r="C50" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D50" t="n">
-        <v>31.69811320754717</v>
+        <v>35.2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1700</v>
+        <v>1680</v>
       </c>
       <c r="C51" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D51" t="n">
-        <v>42.5</v>
+        <v>31.69811320754717</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" t="n">
         <v>1700</v>
       </c>
       <c r="C52" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D52" t="n">
-        <v>48.57142857142857</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" t="n">
         <v>1700</v>
       </c>
       <c r="C53" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D53" t="n">
-        <v>42.5</v>
+        <v>48.57142857142857</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="n">
         <v>1700</v>
       </c>
       <c r="C54" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D54" t="n">
-        <v>48.57142857142857</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="n">
         <v>1700</v>
       </c>
       <c r="C55" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D55" t="n">
-        <v>28.33333333333333</v>
+        <v>48.57142857142857</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="C56" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D56" t="n">
-        <v>53.33333333333334</v>
+        <v>28.33333333333333</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="C57" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D57" t="n">
-        <v>50</v>
+        <v>53.33333333333334</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1710</v>
+        <v>1700</v>
       </c>
       <c r="C58" t="n">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D58" t="n">
-        <v>26.71875</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1600</v>
+        <v>1710</v>
       </c>
       <c r="C59" t="n">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D59" t="n">
-        <v>34.04255319148936</v>
+        <v>26.71875</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1750</v>
+        <v>1600</v>
       </c>
       <c r="C60" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D60" t="n">
-        <v>40.69767441860465</v>
+        <v>34.04255319148936</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1765</v>
+        <v>1750</v>
       </c>
       <c r="C61" t="n">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D61" t="n">
-        <v>28.46774193548387</v>
+        <v>40.69767441860465</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1790</v>
+        <v>1765</v>
       </c>
       <c r="C62" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D62" t="n">
-        <v>35.8</v>
+        <v>28.46774193548387</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1689</v>
+        <v>1790</v>
       </c>
       <c r="C63" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D63" t="n">
-        <v>31.86792452830189</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1795</v>
+        <v>1689</v>
       </c>
       <c r="C64" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D64" t="n">
-        <v>35.9</v>
+        <v>31.86792452830189</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1800</v>
+        <v>1795</v>
       </c>
       <c r="C65" t="n">
         <v>50</v>
       </c>
       <c r="D65" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="C66" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D66" t="n">
-        <v>28.33333333333333</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="C67" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D67" t="n">
-        <v>42.85714285714285</v>
+        <v>28.33333333333333</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1850</v>
+        <v>1800</v>
       </c>
       <c r="C68" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D68" t="n">
-        <v>35.57692307692308</v>
+        <v>42.85714285714285</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" t="n">
         <v>1850</v>
       </c>
       <c r="C69" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D69" t="n">
-        <v>41.11111111111111</v>
+        <v>35.57692307692308</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1750</v>
+        <v>1850</v>
       </c>
       <c r="C70" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D70" t="n">
-        <v>42.68292682926829</v>
+        <v>41.11111111111111</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1850</v>
+        <v>1750</v>
       </c>
       <c r="C71" t="n">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D71" t="n">
-        <v>29.36507936507936</v>
+        <v>42.68292682926829</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" t="n">
         <v>1850</v>
       </c>
       <c r="C72" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D72" t="n">
-        <v>34.90566037735849</v>
+        <v>29.36507936507936</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" t="n">
         <v>1850</v>
       </c>
       <c r="C73" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D73" t="n">
-        <v>41.11111111111111</v>
+        <v>34.90566037735849</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1875</v>
+        <v>1850</v>
       </c>
       <c r="C74" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D74" t="n">
-        <v>35.37735849056604</v>
+        <v>41.11111111111111</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1900</v>
+        <v>1875</v>
       </c>
       <c r="C75" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D75" t="n">
-        <v>34.54545454545455</v>
+        <v>35.37735849056604</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1950</v>
+        <v>1900</v>
       </c>
       <c r="C76" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D76" t="n">
-        <v>42.39130434782609</v>
+        <v>34.54545454545455</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1750</v>
+        <v>1950</v>
       </c>
       <c r="C77" t="n">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="D77" t="n">
-        <v>23.97260273972603</v>
+        <v>42.39130434782609</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2000</v>
+        <v>1750</v>
       </c>
       <c r="C78" t="n">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="D78" t="n">
-        <v>37.73584905660378</v>
+        <v>23.97260273972603</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2044</v>
+        <v>2000</v>
       </c>
       <c r="C79" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D79" t="n">
-        <v>31.9375</v>
+        <v>37.73584905660378</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2100</v>
+        <v>2044</v>
       </c>
       <c r="C80" t="n">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D80" t="n">
-        <v>55.26315789473684</v>
+        <v>31.9375</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" t="n">
         <v>2100</v>
       </c>
       <c r="C81" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="D81" t="n">
-        <v>32.30769230769231</v>
+        <v>55.26315789473684</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" t="n">
         <v>2100</v>
       </c>
       <c r="C82" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D82" t="n">
-        <v>35.59322033898305</v>
+        <v>32.30769230769231</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" t="n">
         <v>2100</v>
       </c>
       <c r="C83" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D83" t="n">
-        <v>44.68085106382978</v>
+        <v>35.59322033898305</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2107</v>
+        <v>2100</v>
       </c>
       <c r="C84" t="n">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="D84" t="n">
-        <v>28.09333333333333</v>
+        <v>44.68085106382978</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2116</v>
+        <v>2107</v>
       </c>
       <c r="C85" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D85" t="n">
-        <v>25.49397590361446</v>
+        <v>28.09333333333333</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2132</v>
+        <v>2116</v>
       </c>
       <c r="C86" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D86" t="n">
-        <v>30.89855072463768</v>
+        <v>25.49397590361446</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2000</v>
+        <v>2132</v>
       </c>
       <c r="C87" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D87" t="n">
-        <v>29.41176470588235</v>
+        <v>30.89855072463768</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2180</v>
+        <v>2000</v>
       </c>
       <c r="C88" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D88" t="n">
-        <v>31.59420289855073</v>
+        <v>29.41176470588235</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2100</v>
+        <v>2180</v>
       </c>
       <c r="C89" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D89" t="n">
-        <v>29.16666666666667</v>
+        <v>31.59420289855073</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="C90" t="n">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D90" t="n">
-        <v>55</v>
+        <v>29.16666666666667</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" t="n">
         <v>2200</v>
       </c>
       <c r="C91" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D91" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" t="n">
         <v>2200</v>
       </c>
       <c r="C92" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D92" t="n">
-        <v>36.66666666666666</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2216</v>
+        <v>2200</v>
       </c>
       <c r="C93" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D93" t="n">
-        <v>32.58823529411764</v>
+        <v>36.66666666666666</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2240</v>
+        <v>2216</v>
       </c>
       <c r="C94" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D94" t="n">
-        <v>32.46376811594203</v>
+        <v>32.58823529411764</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2249</v>
+        <v>2240</v>
       </c>
       <c r="C95" t="n">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D95" t="n">
-        <v>64.25714285714285</v>
+        <v>32.46376811594203</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2282</v>
+        <v>2249</v>
       </c>
       <c r="C96" t="n">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="D96" t="n">
-        <v>29.25641025641026</v>
+        <v>64.25714285714285</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2300</v>
+        <v>2282</v>
       </c>
       <c r="C97" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D97" t="n">
-        <v>35.38461538461539</v>
+        <v>29.25641025641026</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" t="n">
         <v>2300</v>
       </c>
       <c r="C98" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D98" t="n">
-        <v>42.5925925925926</v>
+        <v>35.38461538461539</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2320</v>
+        <v>2300</v>
       </c>
       <c r="C99" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D99" t="n">
-        <v>38.66666666666666</v>
+        <v>42.5925925925926</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2324</v>
+        <v>2320</v>
       </c>
       <c r="C100" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D100" t="n">
-        <v>36.3125</v>
+        <v>38.66666666666666</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" t="n">
         <v>2324</v>
@@ -1852,35 +1852,35 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2367</v>
+        <v>2324</v>
       </c>
       <c r="C102" t="n">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D102" t="n">
-        <v>31.14473684210526</v>
+        <v>36.3125</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2400</v>
+        <v>2367</v>
       </c>
       <c r="C103" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D103" t="n">
-        <v>34.28571428571428</v>
+        <v>31.14473684210526</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" t="n">
         <v>2400</v>
@@ -1894,133 +1894,133 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2445</v>
+        <v>2400</v>
       </c>
       <c r="C105" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D105" t="n">
-        <v>34.43661971830986</v>
+        <v>34.28571428571428</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2450</v>
+        <v>2445</v>
       </c>
       <c r="C106" t="n">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D106" t="n">
-        <v>29.16666666666667</v>
+        <v>34.43661971830986</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" t="n">
         <v>2450</v>
       </c>
       <c r="C107" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D107" t="n">
-        <v>27.22222222222222</v>
+        <v>29.16666666666667</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2280</v>
+        <v>2450</v>
       </c>
       <c r="C108" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D108" t="n">
-        <v>23.75</v>
+        <v>27.22222222222222</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2250</v>
+        <v>2280</v>
       </c>
       <c r="C109" t="n">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D109" t="n">
-        <v>25.28089887640449</v>
+        <v>23.75</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2415</v>
+        <v>2250</v>
       </c>
       <c r="C110" t="n">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D110" t="n">
-        <v>32.2</v>
+        <v>25.28089887640449</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2470</v>
+        <v>2415</v>
       </c>
       <c r="C111" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D111" t="n">
-        <v>44.90909090909091</v>
+        <v>32.2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2600</v>
+        <v>2470</v>
       </c>
       <c r="C112" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D112" t="n">
-        <v>46.42857142857143</v>
+        <v>44.90909090909091</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2650</v>
+        <v>2600</v>
       </c>
       <c r="C113" t="n">
         <v>56</v>
       </c>
       <c r="D113" t="n">
-        <v>47.32142857142857</v>
+        <v>46.42857142857143</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" t="n">
         <v>2650</v>
@@ -2034,119 +2034,119 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2675</v>
+        <v>2650</v>
       </c>
       <c r="C115" t="n">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="D115" t="n">
-        <v>29.39560439560439</v>
+        <v>47.32142857142857</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2550</v>
+        <v>2675</v>
       </c>
       <c r="C116" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D116" t="n">
-        <v>25.5</v>
+        <v>29.39560439560439</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2700</v>
+        <v>2550</v>
       </c>
       <c r="C117" t="n">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="D117" t="n">
-        <v>36.98630136986301</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2780</v>
+        <v>2700</v>
       </c>
       <c r="C118" t="n">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="D118" t="n">
-        <v>29.57446808510638</v>
+        <v>36.98630136986301</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2800</v>
+        <v>2780</v>
       </c>
       <c r="C119" t="n">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="D119" t="n">
-        <v>56</v>
+        <v>29.57446808510638</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" t="n">
         <v>2800</v>
       </c>
       <c r="C120" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D120" t="n">
-        <v>46.66666666666666</v>
+        <v>56</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>2850</v>
+        <v>2800</v>
       </c>
       <c r="C121" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D121" t="n">
-        <v>31.66666666666667</v>
+        <v>46.66666666666666</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2941</v>
+        <v>2850</v>
       </c>
       <c r="C122" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D122" t="n">
-        <v>30.63541666666667</v>
+        <v>31.66666666666667</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" t="n">
         <v>2941</v>
@@ -2160,245 +2160,245 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>3000</v>
+        <v>2941</v>
       </c>
       <c r="C124" t="n">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="D124" t="n">
-        <v>60</v>
+        <v>30.63541666666667</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="C125" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="D125" t="n">
-        <v>33.73493975903614</v>
+        <v>60</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="C126" t="n">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D126" t="n">
-        <v>30.3030303030303</v>
+        <v>33.73493975903614</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" t="n">
         <v>3000</v>
       </c>
       <c r="C127" t="n">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D127" t="n">
-        <v>34.09090909090909</v>
+        <v>30.3030303030303</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>3010</v>
+        <v>3000</v>
       </c>
       <c r="C128" t="n">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="D128" t="n">
-        <v>28.94230769230769</v>
+        <v>34.09090909090909</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>2950</v>
+        <v>3010</v>
       </c>
       <c r="C129" t="n">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D129" t="n">
-        <v>34.70588235294117</v>
+        <v>28.94230769230769</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>3200</v>
+        <v>2950</v>
       </c>
       <c r="C130" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D130" t="n">
-        <v>45.71428571428572</v>
+        <v>34.70588235294117</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" t="n">
         <v>3200</v>
       </c>
       <c r="C131" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D131" t="n">
-        <v>53.33333333333334</v>
+        <v>45.71428571428572</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" t="n">
         <v>3200</v>
       </c>
       <c r="C132" t="n">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D132" t="n">
-        <v>38.09523809523809</v>
+        <v>53.33333333333334</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>3234</v>
+        <v>3200</v>
       </c>
       <c r="C133" t="n">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D133" t="n">
-        <v>31.39805825242718</v>
+        <v>38.09523809523809</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>3300</v>
+        <v>3234</v>
       </c>
       <c r="C134" t="n">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D134" t="n">
-        <v>30.55555555555556</v>
+        <v>31.39805825242718</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>3420</v>
+        <v>3300</v>
       </c>
       <c r="C135" t="n">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="D135" t="n">
-        <v>48.85714285714285</v>
+        <v>30.55555555555556</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>3350</v>
+        <v>3420</v>
       </c>
       <c r="C136" t="n">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="D136" t="n">
-        <v>38.06818181818182</v>
+        <v>48.85714285714285</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>3130</v>
+        <v>3350</v>
       </c>
       <c r="C137" t="n">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D137" t="n">
-        <v>30.99009900990099</v>
+        <v>38.06818181818182</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>3500</v>
+        <v>3130</v>
       </c>
       <c r="C138" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D138" t="n">
-        <v>33.98058252427185</v>
+        <v>30.99009900990099</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="C139" t="n">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="D139" t="n">
-        <v>52.85714285714285</v>
+        <v>33.98058252427185</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>3705</v>
+        <v>3700</v>
       </c>
       <c r="C140" t="n">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D140" t="n">
-        <v>69.90566037735849</v>
+        <v>52.85714285714285</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" t="n">
         <v>3705</v>
@@ -2412,203 +2412,203 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>3800</v>
+        <v>3705</v>
       </c>
       <c r="C142" t="n">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D142" t="n">
-        <v>52.77777777777778</v>
+        <v>69.90566037735849</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="C143" t="n">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D143" t="n">
-        <v>42.85714285714285</v>
+        <v>52.77777777777778</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="C144" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D144" t="n">
-        <v>38.14432989690722</v>
+        <v>42.85714285714285</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="C145" t="n">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="D145" t="n">
-        <v>29.62962962962963</v>
+        <v>38.14432989690722</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" t="n">
         <v>4000</v>
       </c>
       <c r="C146" t="n">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="D146" t="n">
-        <v>50</v>
+        <v>29.62962962962963</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>3850</v>
+        <v>4000</v>
       </c>
       <c r="C147" t="n">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="D147" t="n">
-        <v>33.18965517241379</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4407</v>
+        <v>3850</v>
       </c>
       <c r="C148" t="n">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="D148" t="n">
-        <v>28.99342105263158</v>
+        <v>33.18965517241379</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5000</v>
+        <v>4407</v>
       </c>
       <c r="C149" t="n">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D149" t="n">
-        <v>31.44654088050314</v>
+        <v>28.99342105263158</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5233</v>
+        <v>5000</v>
       </c>
       <c r="C150" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D150" t="n">
-        <v>32.30246913580247</v>
+        <v>31.44654088050314</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5249</v>
+        <v>5233</v>
       </c>
       <c r="C151" t="n">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="D151" t="n">
-        <v>38.31386861313869</v>
+        <v>32.30246913580247</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5500</v>
+        <v>5249</v>
       </c>
       <c r="C152" t="n">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="D152" t="n">
-        <v>34.375</v>
+        <v>38.31386861313869</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="C153" t="n">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D153" t="n">
-        <v>35.6687898089172</v>
+        <v>34.375</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5970</v>
+        <v>5600</v>
       </c>
       <c r="C154" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D154" t="n">
-        <v>37.3125</v>
+        <v>35.6687898089172</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>6000</v>
+        <v>5970</v>
       </c>
       <c r="C155" t="n">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D155" t="n">
-        <v>39.47368421052632</v>
+        <v>37.3125</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" t="n">
         <v>6000</v>
@@ -2622,5335 +2622,5461 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>7450</v>
+        <v>6000</v>
       </c>
       <c r="C157" t="n">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="D157" t="n">
-        <v>41.38888888888889</v>
+        <v>39.47368421052632</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>7280</v>
+        <v>7450</v>
       </c>
       <c r="C158" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D158" t="n">
-        <v>40</v>
+        <v>41.38888888888889</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>775</v>
+        <v>7280</v>
       </c>
       <c r="C159" t="n">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="D159" t="n">
-        <v>38.75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>816</v>
+        <v>10000</v>
       </c>
       <c r="C160" t="n">
-        <v>19</v>
+        <v>220</v>
       </c>
       <c r="D160" t="n">
-        <v>42.94736842105263</v>
+        <v>45.45454545454545</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>800</v>
+        <v>14300</v>
       </c>
       <c r="C161" t="n">
-        <v>19</v>
+        <v>347</v>
       </c>
       <c r="D161" t="n">
-        <v>42.10526315789474</v>
+        <v>41.21037463976946</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>900</v>
+        <v>15000</v>
       </c>
       <c r="C162" t="n">
-        <v>18</v>
+        <v>347</v>
       </c>
       <c r="D162" t="n">
-        <v>50</v>
+        <v>43.22766570605187</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>900</v>
+        <v>775</v>
       </c>
       <c r="C163" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D163" t="n">
-        <v>32.14285714285715</v>
+        <v>38.75</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>888</v>
+        <v>816</v>
       </c>
       <c r="C164" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D164" t="n">
-        <v>37</v>
+        <v>42.94736842105263</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>960</v>
+        <v>800</v>
       </c>
       <c r="C165" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D165" t="n">
-        <v>45.71428571428572</v>
+        <v>42.10526315789474</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>966</v>
+        <v>900</v>
       </c>
       <c r="C166" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D166" t="n">
-        <v>32.2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="C167" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D167" t="n">
-        <v>52.63157894736842</v>
+        <v>32.14285714285715</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1040</v>
+        <v>888</v>
       </c>
       <c r="C168" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D168" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1048</v>
+        <v>960</v>
       </c>
       <c r="C169" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D169" t="n">
-        <v>33.80645161290322</v>
+        <v>45.71428571428572</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1072</v>
+        <v>966</v>
       </c>
       <c r="C170" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D170" t="n">
-        <v>33.5</v>
+        <v>32.2</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1090</v>
+        <v>1000</v>
       </c>
       <c r="C171" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D171" t="n">
-        <v>54.5</v>
+        <v>52.63157894736842</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1100</v>
+        <v>1040</v>
       </c>
       <c r="C172" t="n">
         <v>26</v>
       </c>
       <c r="D172" t="n">
-        <v>42.30769230769231</v>
+        <v>40</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1150</v>
+        <v>1048</v>
       </c>
       <c r="C173" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D173" t="n">
-        <v>54.76190476190476</v>
+        <v>33.80645161290322</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1180</v>
+        <v>1072</v>
       </c>
       <c r="C174" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D174" t="n">
-        <v>51.30434782608695</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>1200</v>
+        <v>1090</v>
       </c>
       <c r="C175" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D175" t="n">
-        <v>40</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="C176" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D176" t="n">
-        <v>37.5</v>
+        <v>42.30769230769231</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="C177" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D177" t="n">
-        <v>60</v>
+        <v>54.76190476190476</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1200</v>
+        <v>1180</v>
       </c>
       <c r="C178" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D178" t="n">
-        <v>60</v>
+        <v>51.30434782608695</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1218</v>
+        <v>1200</v>
       </c>
       <c r="C179" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D179" t="n">
-        <v>43.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="C180" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D180" t="n">
-        <v>59.52380952380953</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="C181" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D181" t="n">
-        <v>36.76470588235294</v>
+        <v>60</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="C182" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D182" t="n">
-        <v>59.09090909090909</v>
+        <v>60</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1329</v>
+        <v>1218</v>
       </c>
       <c r="C183" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D183" t="n">
-        <v>37.97142857142857</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>1340</v>
+        <v>1250</v>
       </c>
       <c r="C184" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D184" t="n">
-        <v>44.66666666666666</v>
+        <v>59.52380952380953</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="C185" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D185" t="n">
-        <v>46.875</v>
+        <v>36.76470588235294</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="C186" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D186" t="n">
-        <v>46.875</v>
+        <v>59.09090909090909</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1550</v>
+        <v>1329</v>
       </c>
       <c r="C187" t="n">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D187" t="n">
-        <v>26.27118644067797</v>
+        <v>37.97142857142857</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1900</v>
+        <v>1340</v>
       </c>
       <c r="C188" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D188" t="n">
-        <v>38</v>
+        <v>44.66666666666666</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>1910</v>
+        <v>1500</v>
       </c>
       <c r="C189" t="n">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="D189" t="n">
-        <v>26.90140845070422</v>
+        <v>46.875</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>2700</v>
+        <v>1500</v>
       </c>
       <c r="C190" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D190" t="n">
-        <v>54</v>
+        <v>46.875</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>2950</v>
+        <v>1550</v>
       </c>
       <c r="C191" t="n">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="D191" t="n">
-        <v>35.97560975609756</v>
+        <v>26.27118644067797</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>2700</v>
+        <v>1900</v>
       </c>
       <c r="C192" t="n">
         <v>50</v>
       </c>
       <c r="D192" t="n">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>6500</v>
+        <v>1910</v>
       </c>
       <c r="C193" t="n">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="D193" t="n">
-        <v>40.37267080745342</v>
+        <v>26.90140845070422</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>7500</v>
+        <v>2700</v>
       </c>
       <c r="C194" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D194" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>1048</v>
+        <v>2950</v>
       </c>
       <c r="C195" t="n">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="D195" t="n">
-        <v>33.80645161290322</v>
+        <v>35.97560975609756</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>1650</v>
+        <v>2700</v>
       </c>
       <c r="C196" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D196" t="n">
-        <v>36.66666666666666</v>
+        <v>54</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>1100</v>
+        <v>6500</v>
       </c>
       <c r="C197" t="n">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="D197" t="n">
-        <v>37.93103448275862</v>
+        <v>40.37267080745342</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>1133</v>
+        <v>7500</v>
       </c>
       <c r="C198" t="n">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="D198" t="n">
-        <v>34.33333333333334</v>
+        <v>50</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>1500</v>
+        <v>1048</v>
       </c>
       <c r="C199" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D199" t="n">
-        <v>33.33333333333334</v>
+        <v>33.80645161290322</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>1530</v>
+        <v>1650</v>
       </c>
       <c r="C200" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D200" t="n">
-        <v>43.71428571428572</v>
+        <v>36.66666666666666</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>1520</v>
+        <v>1100</v>
       </c>
       <c r="C201" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D201" t="n">
-        <v>27.63636363636364</v>
+        <v>37.93103448275862</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1600</v>
+        <v>1133</v>
       </c>
       <c r="C202" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D202" t="n">
-        <v>50</v>
+        <v>34.33333333333334</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>1620</v>
+        <v>1500</v>
       </c>
       <c r="C203" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D203" t="n">
-        <v>30</v>
+        <v>33.33333333333334</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>1700</v>
+        <v>1530</v>
       </c>
       <c r="C204" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D204" t="n">
-        <v>28.33333333333333</v>
+        <v>43.71428571428572</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>1820</v>
+        <v>1520</v>
       </c>
       <c r="C205" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D205" t="n">
-        <v>39.56521739130435</v>
+        <v>27.63636363636364</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>1850</v>
+        <v>1600</v>
       </c>
       <c r="C206" t="n">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="D206" t="n">
-        <v>28.03030303030303</v>
+        <v>50</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>1939</v>
+        <v>1620</v>
       </c>
       <c r="C207" t="n">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D207" t="n">
-        <v>27.30985915492958</v>
+        <v>30</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>1958</v>
+        <v>1700</v>
       </c>
       <c r="C208" t="n">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D208" t="n">
-        <v>26.45945945945946</v>
+        <v>28.33333333333333</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>1750</v>
+        <v>1820</v>
       </c>
       <c r="C209" t="n">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="D209" t="n">
-        <v>20.11494252873563</v>
+        <v>39.56521739130435</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>2090</v>
+        <v>1850</v>
       </c>
       <c r="C210" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D210" t="n">
-        <v>33.70967741935484</v>
+        <v>28.03030303030303</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>2102</v>
+        <v>1939</v>
       </c>
       <c r="C211" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D211" t="n">
-        <v>30.91176470588235</v>
+        <v>27.30985915492958</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>2162</v>
+        <v>1958</v>
       </c>
       <c r="C212" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D212" t="n">
-        <v>28.82666666666667</v>
+        <v>26.45945945945946</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>2150</v>
+        <v>1750</v>
       </c>
       <c r="C213" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D213" t="n">
-        <v>26.875</v>
+        <v>20.11494252873563</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>2250</v>
+        <v>2090</v>
       </c>
       <c r="C214" t="n">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D214" t="n">
-        <v>30.40540540540541</v>
+        <v>33.70967741935484</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>2359</v>
+        <v>2102</v>
       </c>
       <c r="C215" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D215" t="n">
-        <v>29.4875</v>
+        <v>30.91176470588235</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>2400</v>
+        <v>2162</v>
       </c>
       <c r="C216" t="n">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="D216" t="n">
-        <v>21.42857142857143</v>
+        <v>28.82666666666667</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>2459</v>
+        <v>2150</v>
       </c>
       <c r="C217" t="n">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D217" t="n">
-        <v>25.61458333333333</v>
+        <v>26.875</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>2400</v>
+        <v>2250</v>
       </c>
       <c r="C218" t="n">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="D218" t="n">
-        <v>21.42857142857143</v>
+        <v>30.40540540540541</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>2459</v>
+        <v>2359</v>
       </c>
       <c r="C219" t="n">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D219" t="n">
-        <v>25.61458333333333</v>
+        <v>29.4875</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>2535</v>
+        <v>2400</v>
       </c>
       <c r="C220" t="n">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="D220" t="n">
-        <v>29.47674418604651</v>
+        <v>21.42857142857143</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>2650</v>
+        <v>2459</v>
       </c>
       <c r="C221" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D221" t="n">
-        <v>29.44444444444444</v>
+        <v>25.61458333333333</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>2650</v>
+        <v>2400</v>
       </c>
       <c r="C222" t="n">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D222" t="n">
-        <v>27.04081632653061</v>
+        <v>21.42857142857143</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>2900</v>
+        <v>2459</v>
       </c>
       <c r="C223" t="n">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D223" t="n">
-        <v>27.61904761904762</v>
+        <v>25.61458333333333</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>2950</v>
+        <v>2535</v>
       </c>
       <c r="C224" t="n">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D224" t="n">
-        <v>42.14285714285715</v>
+        <v>29.47674418604651</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>3000</v>
+        <v>2650</v>
       </c>
       <c r="C225" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D225" t="n">
-        <v>34.09090909090909</v>
+        <v>29.44444444444444</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>3234</v>
+        <v>2650</v>
       </c>
       <c r="C226" t="n">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D226" t="n">
-        <v>30.8</v>
+        <v>27.04081632653061</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>3243</v>
+        <v>2900</v>
       </c>
       <c r="C227" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D227" t="n">
-        <v>27.025</v>
+        <v>27.61904761904762</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>4200</v>
+        <v>2950</v>
       </c>
       <c r="C228" t="n">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="D228" t="n">
-        <v>35.8974358974359</v>
+        <v>42.14285714285715</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>4938</v>
+        <v>3000</v>
       </c>
       <c r="C229" t="n">
-        <v>173</v>
+        <v>88</v>
       </c>
       <c r="D229" t="n">
-        <v>28.54335260115607</v>
+        <v>34.09090909090909</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>1100</v>
+        <v>3234</v>
       </c>
       <c r="C230" t="n">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="D230" t="n">
-        <v>35.48387096774194</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>700</v>
+        <v>3243</v>
       </c>
       <c r="C231" t="n">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="D231" t="n">
-        <v>30.43478260869565</v>
+        <v>27.025</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>880</v>
+        <v>4200</v>
       </c>
       <c r="C232" t="n">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="D232" t="n">
-        <v>41.90476190476191</v>
+        <v>35.8974358974359</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>930</v>
+        <v>4938</v>
       </c>
       <c r="C233" t="n">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="D233" t="n">
-        <v>62</v>
+        <v>28.54335260115607</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>940</v>
+        <v>1100</v>
       </c>
       <c r="C234" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D234" t="n">
-        <v>34.81481481481482</v>
+        <v>35.48387096774194</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="C235" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D235" t="n">
-        <v>45.23809523809524</v>
+        <v>30.43478260869565</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>950</v>
+        <v>880</v>
       </c>
       <c r="C236" t="n">
         <v>21</v>
       </c>
       <c r="D236" t="n">
-        <v>45.23809523809524</v>
+        <v>41.90476190476191</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>1000</v>
+        <v>930</v>
       </c>
       <c r="C237" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D237" t="n">
-        <v>47.61904761904762</v>
+        <v>62</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>1380</v>
+        <v>940</v>
       </c>
       <c r="C238" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D238" t="n">
-        <v>38.33333333333334</v>
+        <v>34.81481481481482</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>1700</v>
+        <v>950</v>
       </c>
       <c r="C239" t="n">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="D239" t="n">
-        <v>29.82456140350877</v>
+        <v>45.23809523809524</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>1740</v>
+        <v>950</v>
       </c>
       <c r="C240" t="n">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D240" t="n">
-        <v>35.51020408163265</v>
+        <v>45.23809523809524</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>2367</v>
+        <v>1000</v>
       </c>
       <c r="C241" t="n">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D241" t="n">
-        <v>31.14473684210526</v>
+        <v>47.61904761904762</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>2800</v>
+        <v>1380</v>
       </c>
       <c r="C242" t="n">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="D242" t="n">
-        <v>33.73493975903614</v>
+        <v>38.33333333333334</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="C243" t="n">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="D243" t="n">
-        <v>28.84615384615385</v>
+        <v>29.82456140350877</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>1365</v>
+        <v>1740</v>
       </c>
       <c r="C244" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D244" t="n">
-        <v>31.02272727272727</v>
+        <v>35.51020408163265</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>855</v>
+        <v>2367</v>
       </c>
       <c r="C245" t="n">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="D245" t="n">
-        <v>42.75</v>
+        <v>31.14473684210526</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>1250</v>
+        <v>2800</v>
       </c>
       <c r="C246" t="n">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="D246" t="n">
-        <v>41.66666666666666</v>
+        <v>33.73493975903614</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>2132</v>
+        <v>3000</v>
       </c>
       <c r="C247" t="n">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="D247" t="n">
-        <v>30.89855072463768</v>
+        <v>28.84615384615385</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>2840</v>
+        <v>1365</v>
       </c>
       <c r="C248" t="n">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="D248" t="n">
-        <v>36.88311688311688</v>
+        <v>31.02272727272727</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>2614</v>
+        <v>855</v>
       </c>
       <c r="C249" t="n">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="D249" t="n">
-        <v>27.22916666666667</v>
+        <v>42.75</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>693</v>
+        <v>1250</v>
       </c>
       <c r="C250" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D250" t="n">
-        <v>36.47368421052632</v>
+        <v>41.66666666666666</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>1000</v>
+        <v>2132</v>
       </c>
       <c r="C251" t="n">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="D251" t="n">
-        <v>50</v>
+        <v>30.89855072463768</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>2200</v>
+        <v>2840</v>
       </c>
       <c r="C252" t="n">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D252" t="n">
-        <v>81.48148148148148</v>
+        <v>36.88311688311688</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>1900</v>
+        <v>2614</v>
       </c>
       <c r="C253" t="n">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="D253" t="n">
-        <v>31.66666666666667</v>
+        <v>27.22916666666667</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>2347</v>
+        <v>693</v>
       </c>
       <c r="C254" t="n">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="D254" t="n">
-        <v>32.59722222222222</v>
+        <v>36.47368421052632</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>3460</v>
+        <v>1000</v>
       </c>
       <c r="C255" t="n">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="D255" t="n">
-        <v>33.59223300970874</v>
+        <v>50</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>1100</v>
+        <v>2200</v>
       </c>
       <c r="C256" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D256" t="n">
-        <v>44</v>
+        <v>81.48148148148148</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="C257" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D257" t="n">
-        <v>40</v>
+        <v>31.66666666666667</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>1313</v>
+        <v>2347</v>
       </c>
       <c r="C258" t="n">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D258" t="n">
-        <v>32.825</v>
+        <v>32.59722222222222</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>1490</v>
+        <v>3460</v>
       </c>
       <c r="C259" t="n">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="D259" t="n">
-        <v>27.59259259259259</v>
+        <v>33.59223300970874</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>1850</v>
+        <v>1100</v>
       </c>
       <c r="C260" t="n">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D260" t="n">
-        <v>31.35593220338983</v>
+        <v>44</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>1880</v>
+        <v>1200</v>
       </c>
       <c r="C261" t="n">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="D261" t="n">
-        <v>30.32258064516129</v>
+        <v>40</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>1900</v>
+        <v>1313</v>
       </c>
       <c r="C262" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D262" t="n">
-        <v>29.6875</v>
+        <v>32.825</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>1900</v>
+        <v>1490</v>
       </c>
       <c r="C263" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D263" t="n">
-        <v>39.58333333333334</v>
+        <v>27.59259259259259</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>2008</v>
+        <v>1850</v>
       </c>
       <c r="C264" t="n">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="D264" t="n">
-        <v>23.08045977011494</v>
+        <v>31.35593220338983</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>2960</v>
+        <v>1880</v>
       </c>
       <c r="C265" t="n">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="D265" t="n">
-        <v>27.92452830188679</v>
+        <v>30.32258064516129</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>3200</v>
+        <v>1900</v>
       </c>
       <c r="C266" t="n">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="D266" t="n">
-        <v>28.07017543859649</v>
+        <v>29.6875</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>3220</v>
+        <v>1900</v>
       </c>
       <c r="C267" t="n">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="D267" t="n">
-        <v>29.27272727272727</v>
+        <v>39.58333333333334</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>3380</v>
+        <v>2008</v>
       </c>
       <c r="C268" t="n">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="D268" t="n">
-        <v>26.2015503875969</v>
+        <v>23.08045977011494</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>3950</v>
+        <v>2960</v>
       </c>
       <c r="C269" t="n">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="D269" t="n">
-        <v>31.6</v>
+        <v>27.92452830188679</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>645</v>
+        <v>3200</v>
       </c>
       <c r="C270" t="n">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="D270" t="n">
-        <v>43</v>
+        <v>28.07017543859649</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>682</v>
+        <v>3220</v>
       </c>
       <c r="C271" t="n">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="D271" t="n">
-        <v>40.11764705882353</v>
+        <v>29.27272727272727</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>745</v>
+        <v>3380</v>
       </c>
       <c r="C272" t="n">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="D272" t="n">
-        <v>37.25</v>
+        <v>26.2015503875969</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>1780</v>
+        <v>3950</v>
       </c>
       <c r="C273" t="n">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="D273" t="n">
-        <v>39.55555555555556</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>1595</v>
+        <v>645</v>
       </c>
       <c r="C274" t="n">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="D274" t="n">
-        <v>29.53703703703704</v>
+        <v>43</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>4200</v>
+        <v>682</v>
       </c>
       <c r="C275" t="n">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="D275" t="n">
-        <v>40</v>
+        <v>40.11764705882353</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>9500</v>
+        <v>745</v>
       </c>
       <c r="C276" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="D276" t="n">
-        <v>63.33333333333334</v>
+        <v>37.25</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>973</v>
+        <v>1780</v>
       </c>
       <c r="C277" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D277" t="n">
-        <v>33.55172413793103</v>
+        <v>39.55555555555556</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>1100</v>
+        <v>1595</v>
       </c>
       <c r="C278" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D278" t="n">
-        <v>30.55555555555556</v>
+        <v>29.53703703703704</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>1851</v>
+        <v>4200</v>
       </c>
       <c r="C279" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="D279" t="n">
-        <v>37.02</v>
+        <v>40</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>1105</v>
+        <v>9500</v>
       </c>
       <c r="C280" t="n">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="D280" t="n">
-        <v>33.48484848484848</v>
+        <v>63.33333333333334</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>1200</v>
+        <v>973</v>
       </c>
       <c r="C281" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D281" t="n">
-        <v>30</v>
+        <v>33.55172413793103</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>1704</v>
+        <v>1100</v>
       </c>
       <c r="C282" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D282" t="n">
-        <v>30.42857142857143</v>
+        <v>30.55555555555556</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>800</v>
+        <v>1851</v>
       </c>
       <c r="C283" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D283" t="n">
-        <v>53.33333333333334</v>
+        <v>37.02</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>985</v>
+        <v>1105</v>
       </c>
       <c r="C284" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D284" t="n">
-        <v>28.97058823529412</v>
+        <v>33.48484848484848</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="C285" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D285" t="n">
-        <v>34.48275862068966</v>
+        <v>30</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>1006</v>
+        <v>1704</v>
       </c>
       <c r="C286" t="n">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D286" t="n">
-        <v>38.69230769230769</v>
+        <v>30.42857142857143</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="C287" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D287" t="n">
-        <v>29.72972972972973</v>
+        <v>53.33333333333334</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>1220</v>
+        <v>985</v>
       </c>
       <c r="C288" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D288" t="n">
-        <v>38.125</v>
+        <v>28.97058823529412</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>1230</v>
+        <v>1000</v>
       </c>
       <c r="C289" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D289" t="n">
-        <v>35.14285714285715</v>
+        <v>34.48275862068966</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>1270</v>
+        <v>1006</v>
       </c>
       <c r="C290" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D290" t="n">
-        <v>42.33333333333334</v>
+        <v>38.69230769230769</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>1280</v>
+        <v>1100</v>
       </c>
       <c r="C291" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D291" t="n">
-        <v>41.29032258064516</v>
+        <v>29.72972972972973</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>1290</v>
+        <v>1220</v>
       </c>
       <c r="C292" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D292" t="n">
-        <v>33.94736842105263</v>
+        <v>38.125</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>1300</v>
+        <v>1230</v>
       </c>
       <c r="C293" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D293" t="n">
-        <v>33.33333333333334</v>
+        <v>35.14285714285715</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>1340</v>
+        <v>1270</v>
       </c>
       <c r="C294" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D294" t="n">
-        <v>39.41176470588236</v>
+        <v>42.33333333333334</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>1350</v>
+        <v>1280</v>
       </c>
       <c r="C295" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D295" t="n">
-        <v>34.61538461538461</v>
+        <v>41.29032258064516</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>1380</v>
+        <v>1290</v>
       </c>
       <c r="C296" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D296" t="n">
-        <v>34.5</v>
+        <v>33.94736842105263</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>1390</v>
+        <v>1300</v>
       </c>
       <c r="C297" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D297" t="n">
-        <v>29.57446808510638</v>
+        <v>33.33333333333334</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>1390</v>
+        <v>1340</v>
       </c>
       <c r="C298" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D298" t="n">
-        <v>34.75</v>
+        <v>39.41176470588236</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>1400</v>
+        <v>1350</v>
       </c>
       <c r="C299" t="n">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D299" t="n">
-        <v>26.92307692307692</v>
+        <v>34.61538461538461</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>1400</v>
+        <v>1380</v>
       </c>
       <c r="C300" t="n">
         <v>40</v>
       </c>
       <c r="D300" t="n">
-        <v>35</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>1400</v>
+        <v>1390</v>
       </c>
       <c r="C301" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D301" t="n">
-        <v>42.42424242424242</v>
+        <v>29.57446808510638</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>1500</v>
+        <v>1390</v>
       </c>
       <c r="C302" t="n">
         <v>40</v>
       </c>
       <c r="D302" t="n">
-        <v>37.5</v>
+        <v>34.75</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>1550</v>
+        <v>1400</v>
       </c>
       <c r="C303" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D303" t="n">
-        <v>31</v>
+        <v>26.92307692307692</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>1570</v>
+        <v>1400</v>
       </c>
       <c r="C304" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D304" t="n">
-        <v>30.7843137254902</v>
+        <v>35</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>1590</v>
+        <v>1400</v>
       </c>
       <c r="C305" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D305" t="n">
-        <v>35.33333333333334</v>
+        <v>42.42424242424242</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="C306" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D306" t="n">
-        <v>45.71428571428572</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>1600</v>
+        <v>1550</v>
       </c>
       <c r="C307" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D307" t="n">
-        <v>43.24324324324324</v>
+        <v>31</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>1627</v>
+        <v>1570</v>
       </c>
       <c r="C308" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D308" t="n">
-        <v>35.3695652173913</v>
+        <v>30.7843137254902</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>1690</v>
+        <v>1590</v>
       </c>
       <c r="C309" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D309" t="n">
-        <v>30.17857142857143</v>
+        <v>35.33333333333334</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>1696</v>
+        <v>1600</v>
       </c>
       <c r="C310" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D310" t="n">
-        <v>29.75438596491228</v>
+        <v>45.71428571428572</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="C311" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D311" t="n">
-        <v>37.77777777777778</v>
+        <v>43.24324324324324</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>1700</v>
+        <v>1627</v>
       </c>
       <c r="C312" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D312" t="n">
-        <v>36.17021276595744</v>
+        <v>35.3695652173913</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>1705</v>
+        <v>1690</v>
       </c>
       <c r="C313" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D313" t="n">
-        <v>22.73333333333333</v>
+        <v>30.17857142857143</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>1750</v>
+        <v>1696</v>
       </c>
       <c r="C314" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D314" t="n">
-        <v>34.31372549019608</v>
+        <v>29.75438596491228</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>1750</v>
+        <v>1700</v>
       </c>
       <c r="C315" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D315" t="n">
-        <v>35.71428571428572</v>
+        <v>37.77777777777778</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="C316" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D316" t="n">
-        <v>45</v>
+        <v>36.17021276595744</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>1830</v>
+        <v>1705</v>
       </c>
       <c r="C317" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D317" t="n">
-        <v>28.59375</v>
+        <v>22.73333333333333</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>1726</v>
+        <v>1750</v>
       </c>
       <c r="C318" t="n">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D318" t="n">
-        <v>27.83870967741936</v>
+        <v>34.31372549019608</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>1850</v>
+        <v>1750</v>
       </c>
       <c r="C319" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D319" t="n">
-        <v>52.85714285714285</v>
+        <v>35.71428571428572</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>1875</v>
+        <v>1800</v>
       </c>
       <c r="C320" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D320" t="n">
-        <v>44.64285714285715</v>
+        <v>45</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>1900</v>
+        <v>1830</v>
       </c>
       <c r="C321" t="n">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D321" t="n">
-        <v>42.22222222222222</v>
+        <v>28.59375</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>1930</v>
+        <v>1726</v>
       </c>
       <c r="C322" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D322" t="n">
-        <v>30.15625</v>
+        <v>27.83870967741936</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>1990</v>
+        <v>1850</v>
       </c>
       <c r="C323" t="n">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="D323" t="n">
-        <v>32.62295081967213</v>
+        <v>52.85714285714285</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>2000</v>
+        <v>1875</v>
       </c>
       <c r="C324" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D324" t="n">
-        <v>40</v>
+        <v>44.64285714285715</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>2044</v>
+        <v>1900</v>
       </c>
       <c r="C325" t="n">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D325" t="n">
-        <v>31.9375</v>
+        <v>42.22222222222222</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>2060</v>
+        <v>1930</v>
       </c>
       <c r="C326" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D326" t="n">
-        <v>29.85507246376812</v>
+        <v>30.15625</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>2100</v>
+        <v>1990</v>
       </c>
       <c r="C327" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D327" t="n">
-        <v>42</v>
+        <v>32.62295081967213</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>1922</v>
+        <v>2000</v>
       </c>
       <c r="C328" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="D328" t="n">
-        <v>26.32876712328767</v>
+        <v>40</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>2190</v>
+        <v>2044</v>
       </c>
       <c r="C329" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D329" t="n">
-        <v>31.28571428571428</v>
+        <v>31.9375</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>2250</v>
+        <v>2060</v>
       </c>
       <c r="C330" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D330" t="n">
-        <v>34.09090909090909</v>
+        <v>29.85507246376812</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>2250</v>
+        <v>2100</v>
       </c>
       <c r="C331" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D331" t="n">
-        <v>40.90909090909091</v>
+        <v>42</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>2300</v>
+        <v>1922</v>
       </c>
       <c r="C332" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D332" t="n">
-        <v>35.38461538461539</v>
+        <v>26.32876712328767</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>2300</v>
+        <v>2190</v>
       </c>
       <c r="C333" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D333" t="n">
-        <v>28.75</v>
+        <v>31.28571428571428</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>2309</v>
+        <v>2250</v>
       </c>
       <c r="C334" t="n">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="D334" t="n">
-        <v>26.23863636363636</v>
+        <v>34.09090909090909</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>2450</v>
+        <v>2250</v>
       </c>
       <c r="C335" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D335" t="n">
-        <v>45.37037037037037</v>
+        <v>40.90909090909091</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>2471</v>
+        <v>2300</v>
       </c>
       <c r="C336" t="n">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D336" t="n">
-        <v>27.76404494382022</v>
+        <v>35.38461538461539</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="C337" t="n">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="D337" t="n">
-        <v>48.07692307692308</v>
+        <v>28.75</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>2500</v>
+        <v>2309</v>
       </c>
       <c r="C338" t="n">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="D338" t="n">
-        <v>78.125</v>
+        <v>26.23863636363636</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>2500</v>
+        <v>2450</v>
       </c>
       <c r="C339" t="n">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D339" t="n">
-        <v>39.68253968253968</v>
+        <v>45.37037037037037</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>2500</v>
+        <v>2471</v>
       </c>
       <c r="C340" t="n">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D340" t="n">
-        <v>32.89473684210526</v>
+        <v>27.76404494382022</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>2587</v>
+        <v>2500</v>
       </c>
       <c r="C341" t="n">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D341" t="n">
-        <v>35.43835616438356</v>
+        <v>48.07692307692308</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="C342" t="n">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="D342" t="n">
-        <v>26.73267326732673</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="C343" t="n">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D343" t="n">
-        <v>32.14285714285715</v>
+        <v>39.68253968253968</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>2750</v>
+        <v>2500</v>
       </c>
       <c r="C344" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D344" t="n">
-        <v>33.95061728395062</v>
+        <v>32.89473684210526</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>2800</v>
+        <v>2587</v>
       </c>
       <c r="C345" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D345" t="n">
-        <v>41.1764705882353</v>
+        <v>35.43835616438356</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="C346" t="n">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="D346" t="n">
-        <v>46.66666666666666</v>
+        <v>26.73267326732673</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>2886</v>
+        <v>2700</v>
       </c>
       <c r="C347" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D347" t="n">
-        <v>33.95294117647059</v>
+        <v>32.14285714285715</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>2900</v>
+        <v>2750</v>
       </c>
       <c r="C348" t="n">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D348" t="n">
-        <v>26.36363636363636</v>
+        <v>33.95061728395062</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="C349" t="n">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D349" t="n">
-        <v>31.57894736842105</v>
+        <v>41.1764705882353</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="C350" t="n">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="D350" t="n">
-        <v>29.7029702970297</v>
+        <v>46.66666666666666</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>3000</v>
+        <v>2886</v>
       </c>
       <c r="C351" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D351" t="n">
-        <v>33.33333333333334</v>
+        <v>33.95294117647059</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>2840</v>
+        <v>2900</v>
       </c>
       <c r="C352" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D352" t="n">
-        <v>28.4</v>
+        <v>26.36363636363636</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="C353" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D353" t="n">
-        <v>31</v>
+        <v>31.57894736842105</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>3179</v>
+        <v>3000</v>
       </c>
       <c r="C354" t="n">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D354" t="n">
-        <v>44.15277777777778</v>
+        <v>29.7029702970297</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="C355" t="n">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="D355" t="n">
-        <v>28.07017543859649</v>
+        <v>33.33333333333334</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>3200</v>
+        <v>2840</v>
       </c>
       <c r="C356" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D356" t="n">
-        <v>29.09090909090909</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="C357" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D357" t="n">
-        <v>27.27272727272727</v>
+        <v>31</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>3200</v>
+        <v>3179</v>
       </c>
       <c r="C358" t="n">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="D358" t="n">
-        <v>30.47619047619047</v>
+        <v>44.15277777777778</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="C359" t="n">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D359" t="n">
-        <v>32.67326732673267</v>
+        <v>28.07017543859649</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="C360" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="D360" t="n">
-        <v>34.73684210526316</v>
+        <v>29.09090909090909</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="C361" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D361" t="n">
-        <v>30.55555555555556</v>
+        <v>27.27272727272727</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>3460</v>
+        <v>3200</v>
       </c>
       <c r="C362" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D362" t="n">
-        <v>33.59223300970874</v>
+        <v>30.47619047619047</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="C363" t="n">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D363" t="n">
-        <v>44.87179487179487</v>
+        <v>32.67326732673267</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>3650</v>
+        <v>3300</v>
       </c>
       <c r="C364" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="D364" t="n">
-        <v>30.41666666666667</v>
+        <v>34.73684210526316</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>3660</v>
+        <v>3300</v>
       </c>
       <c r="C365" t="n">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D365" t="n">
-        <v>36.6</v>
+        <v>30.55555555555556</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>3680</v>
+        <v>3460</v>
       </c>
       <c r="C366" t="n">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D366" t="n">
-        <v>32.85714285714285</v>
+        <v>33.59223300970874</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="C367" t="n">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="D367" t="n">
-        <v>25.51724137931035</v>
+        <v>44.87179487179487</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>4500</v>
+        <v>3650</v>
       </c>
       <c r="C368" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D368" t="n">
-        <v>38.46153846153846</v>
+        <v>30.41666666666667</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>4600</v>
+        <v>3660</v>
       </c>
       <c r="C369" t="n">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="D369" t="n">
-        <v>35.11450381679389</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>4930</v>
+        <v>3680</v>
       </c>
       <c r="C370" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D370" t="n">
-        <v>42.13675213675214</v>
+        <v>32.85714285714285</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>4937</v>
+        <v>3700</v>
       </c>
       <c r="C371" t="n">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="D371" t="n">
-        <v>28.53757225433526</v>
+        <v>25.51724137931035</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>5100</v>
+        <v>4500</v>
       </c>
       <c r="C372" t="n">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="D372" t="n">
-        <v>51</v>
+        <v>38.46153846153846</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>5233</v>
+        <v>4600</v>
       </c>
       <c r="C373" t="n">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="D373" t="n">
-        <v>32.30246913580247</v>
+        <v>35.11450381679389</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>5249</v>
+        <v>4930</v>
       </c>
       <c r="C374" t="n">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="D374" t="n">
-        <v>32.40123456790123</v>
+        <v>42.13675213675214</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>5000</v>
+        <v>4937</v>
       </c>
       <c r="C375" t="n">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="D375" t="n">
-        <v>32.89473684210526</v>
+        <v>28.53757225433526</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>5307</v>
+        <v>5100</v>
       </c>
       <c r="C376" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="D376" t="n">
-        <v>30.32571428571429</v>
+        <v>51</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>7450</v>
+        <v>5233</v>
       </c>
       <c r="C377" t="n">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="D377" t="n">
-        <v>41.38888888888889</v>
+        <v>32.30246913580247</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>730</v>
+        <v>5249</v>
       </c>
       <c r="C378" t="n">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="D378" t="n">
-        <v>66.36363636363636</v>
+        <v>32.40123456790123</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>738</v>
+        <v>5000</v>
       </c>
       <c r="C379" t="n">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="D379" t="n">
-        <v>52.71428571428572</v>
+        <v>32.89473684210526</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>821</v>
+        <v>5307</v>
       </c>
       <c r="C380" t="n">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="D380" t="n">
-        <v>45.61111111111111</v>
+        <v>30.32571428571429</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>850</v>
+        <v>5950</v>
       </c>
       <c r="C381" t="n">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="D381" t="n">
-        <v>53.125</v>
+        <v>25.31914893617021</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>854</v>
+        <v>7450</v>
       </c>
       <c r="C382" t="n">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="D382" t="n">
-        <v>34.16</v>
+        <v>41.38888888888889</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>910</v>
+        <v>25000</v>
       </c>
       <c r="C383" t="n">
-        <v>24</v>
+        <v>415</v>
       </c>
       <c r="D383" t="n">
-        <v>37.91666666666666</v>
+        <v>60.24096385542169</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>940</v>
+        <v>730</v>
       </c>
       <c r="C384" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D384" t="n">
-        <v>49.47368421052632</v>
+        <v>66.36363636363636</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>950</v>
+        <v>738</v>
       </c>
       <c r="C385" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D385" t="n">
-        <v>47.5</v>
+        <v>52.71428571428572</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>950</v>
+        <v>821</v>
       </c>
       <c r="C386" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D386" t="n">
-        <v>45.23809523809524</v>
+        <v>45.61111111111111</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>976</v>
+        <v>850</v>
       </c>
       <c r="C387" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D387" t="n">
-        <v>42.43478260869565</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>990</v>
+        <v>854</v>
       </c>
       <c r="C388" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D388" t="n">
-        <v>36.66666666666666</v>
+        <v>34.16</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>1190</v>
+        <v>910</v>
       </c>
       <c r="C389" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D389" t="n">
-        <v>41.03448275862069</v>
+        <v>37.91666666666666</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>1095</v>
+        <v>940</v>
       </c>
       <c r="C390" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D390" t="n">
-        <v>36.5</v>
+        <v>49.47368421052632</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>1210</v>
+        <v>950</v>
       </c>
       <c r="C391" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D391" t="n">
-        <v>30.25</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>1250</v>
+        <v>950</v>
       </c>
       <c r="C392" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D392" t="n">
-        <v>44.64285714285715</v>
+        <v>45.23809523809524</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>1255</v>
+        <v>976</v>
       </c>
       <c r="C393" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D393" t="n">
-        <v>52.29166666666666</v>
+        <v>42.43478260869565</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>1255</v>
+        <v>990</v>
       </c>
       <c r="C394" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D394" t="n">
-        <v>52.29166666666666</v>
+        <v>36.66666666666666</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>1300</v>
+        <v>1190</v>
       </c>
       <c r="C395" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D395" t="n">
-        <v>40.625</v>
+        <v>41.03448275862069</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>1380</v>
+        <v>1095</v>
       </c>
       <c r="C396" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D396" t="n">
-        <v>43.125</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>1500</v>
+        <v>1210</v>
       </c>
       <c r="C397" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D397" t="n">
-        <v>35.71428571428572</v>
+        <v>30.25</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="C398" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D398" t="n">
-        <v>44.11764705882353</v>
+        <v>44.64285714285715</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>1510</v>
+        <v>1255</v>
       </c>
       <c r="C399" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D399" t="n">
-        <v>52.06896551724138</v>
+        <v>52.29166666666666</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>1550</v>
+        <v>1255</v>
       </c>
       <c r="C400" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D400" t="n">
-        <v>51.66666666666666</v>
+        <v>52.29166666666666</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>1560</v>
+        <v>1300</v>
       </c>
       <c r="C401" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D401" t="n">
-        <v>31.2</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>1580</v>
+        <v>1380</v>
       </c>
       <c r="C402" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D402" t="n">
-        <v>45.14285714285715</v>
+        <v>43.125</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>1640</v>
+        <v>1500</v>
       </c>
       <c r="C403" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D403" t="n">
-        <v>34.8936170212766</v>
+        <v>35.71428571428572</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>1650</v>
+        <v>1500</v>
       </c>
       <c r="C404" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D404" t="n">
-        <v>41.25</v>
+        <v>44.11764705882353</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>1665</v>
+        <v>1510</v>
       </c>
       <c r="C405" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D405" t="n">
-        <v>48.97058823529412</v>
+        <v>52.06896551724138</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>1865</v>
+        <v>1550</v>
       </c>
       <c r="C406" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D406" t="n">
-        <v>33.90909090909091</v>
+        <v>51.66666666666666</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>1920</v>
+        <v>1560</v>
       </c>
       <c r="C407" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D407" t="n">
-        <v>30</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>2000</v>
+        <v>1580</v>
       </c>
       <c r="C408" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D408" t="n">
-        <v>47.61904761904762</v>
+        <v>45.14285714285715</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>2000</v>
+        <v>1640</v>
       </c>
       <c r="C409" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D409" t="n">
-        <v>48.78048780487805</v>
+        <v>34.8936170212766</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>2130</v>
+        <v>1650</v>
       </c>
       <c r="C410" t="n">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D410" t="n">
-        <v>29.17808219178082</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>2200</v>
+        <v>1665</v>
       </c>
       <c r="C411" t="n">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D411" t="n">
-        <v>38.59649122807018</v>
+        <v>48.97058823529412</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>2300</v>
+        <v>1865</v>
       </c>
       <c r="C412" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D412" t="n">
-        <v>28.75</v>
+        <v>33.90909090909091</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>2500</v>
+        <v>1920</v>
       </c>
       <c r="C413" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D413" t="n">
-        <v>41.66666666666666</v>
+        <v>30</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>3750</v>
+        <v>2000</v>
       </c>
       <c r="C414" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D414" t="n">
-        <v>53.57142857142857</v>
+        <v>47.61904761904762</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>3800</v>
+        <v>2000</v>
       </c>
       <c r="C415" t="n">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="D415" t="n">
-        <v>27.53623188405797</v>
+        <v>48.78048780487805</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>4100</v>
+        <v>2130</v>
       </c>
       <c r="C416" t="n">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D416" t="n">
-        <v>32.28346456692913</v>
+        <v>29.17808219178082</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>4300</v>
+        <v>2200</v>
       </c>
       <c r="C417" t="n">
-        <v>148</v>
+        <v>57</v>
       </c>
       <c r="D417" t="n">
-        <v>29.05405405405405</v>
+        <v>38.59649122807018</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>4500</v>
+        <v>2300</v>
       </c>
       <c r="C418" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="D418" t="n">
-        <v>39.1304347826087</v>
+        <v>28.75</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>637</v>
+        <v>2500</v>
       </c>
       <c r="C419" t="n">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D419" t="n">
-        <v>45.5</v>
+        <v>41.66666666666666</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>680</v>
+        <v>3750</v>
       </c>
       <c r="C420" t="n">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="D420" t="n">
-        <v>48.57142857142857</v>
+        <v>53.57142857142857</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>700</v>
+        <v>3800</v>
       </c>
       <c r="C421" t="n">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="D421" t="n">
-        <v>38.88888888888889</v>
+        <v>27.53623188405797</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>960</v>
+        <v>4100</v>
       </c>
       <c r="C422" t="n">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D422" t="n">
-        <v>48</v>
+        <v>32.28346456692913</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>775</v>
+        <v>4300</v>
       </c>
       <c r="C423" t="n">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="D423" t="n">
-        <v>38.75</v>
+        <v>29.05405405405405</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>1250</v>
+        <v>4500</v>
       </c>
       <c r="C424" t="n">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="D424" t="n">
-        <v>31.25</v>
+        <v>39.1304347826087</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>1380</v>
+        <v>15000</v>
       </c>
       <c r="C425" t="n">
-        <v>30</v>
+        <v>347</v>
       </c>
       <c r="D425" t="n">
-        <v>46</v>
+        <v>43.22766570605187</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>1630</v>
+        <v>637</v>
       </c>
       <c r="C426" t="n">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D426" t="n">
-        <v>30.18518518518519</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>1650</v>
+        <v>680</v>
       </c>
       <c r="C427" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D427" t="n">
-        <v>33</v>
+        <v>48.57142857142857</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>1765</v>
+        <v>700</v>
       </c>
       <c r="C428" t="n">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="D428" t="n">
-        <v>28.46774193548387</v>
+        <v>38.88888888888889</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>1900</v>
+        <v>960</v>
       </c>
       <c r="C429" t="n">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="D429" t="n">
-        <v>29.6875</v>
+        <v>48</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>1787</v>
+        <v>775</v>
       </c>
       <c r="C430" t="n">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="D430" t="n">
-        <v>23.20779220779221</v>
+        <v>38.75</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>1920</v>
+        <v>1250</v>
       </c>
       <c r="C431" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D431" t="n">
-        <v>30</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>2132</v>
+        <v>1380</v>
       </c>
       <c r="C432" t="n">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="D432" t="n">
-        <v>30.89855072463768</v>
+        <v>46</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>2132</v>
+        <v>1630</v>
       </c>
       <c r="C433" t="n">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D433" t="n">
-        <v>30.89855072463768</v>
+        <v>30.18518518518519</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>2200</v>
+        <v>1650</v>
       </c>
       <c r="C434" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D434" t="n">
-        <v>36.66666666666666</v>
+        <v>33</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>2272</v>
+        <v>1765</v>
       </c>
       <c r="C435" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D435" t="n">
-        <v>32.92753623188405</v>
+        <v>28.46774193548387</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="C436" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D436" t="n">
-        <v>34.28571428571428</v>
+        <v>29.6875</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>2350</v>
+        <v>1787</v>
       </c>
       <c r="C437" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D437" t="n">
-        <v>33.57142857142857</v>
+        <v>23.20779220779221</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>2657</v>
+        <v>1920</v>
       </c>
       <c r="C438" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D438" t="n">
-        <v>66.425</v>
+        <v>30</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>2999</v>
+        <v>2132</v>
       </c>
       <c r="C439" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D439" t="n">
-        <v>39.46052631578947</v>
+        <v>30.89855072463768</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>3000</v>
+        <v>2132</v>
       </c>
       <c r="C440" t="n">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D440" t="n">
-        <v>37.5</v>
+        <v>30.89855072463768</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>3460</v>
+        <v>2200</v>
       </c>
       <c r="C441" t="n">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="D441" t="n">
-        <v>33.59223300970874</v>
+        <v>36.66666666666666</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>3600</v>
+        <v>2272</v>
       </c>
       <c r="C442" t="n">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="D442" t="n">
-        <v>29.03225806451613</v>
+        <v>32.92753623188405</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>20000</v>
+        <v>2400</v>
       </c>
       <c r="C443" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="D443" t="n">
-        <v>111.1111111111111</v>
+        <v>34.28571428571428</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>2290</v>
+        <v>2350</v>
       </c>
       <c r="C444" t="n">
         <v>70</v>
       </c>
       <c r="D444" t="n">
-        <v>32.71428571428572</v>
+        <v>33.57142857142857</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>2927</v>
+        <v>2657</v>
       </c>
       <c r="C445" t="n">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="D445" t="n">
-        <v>25.23275862068965</v>
+        <v>66.425</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>700</v>
+        <v>2999</v>
       </c>
       <c r="C446" t="n">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="D446" t="n">
-        <v>50</v>
+        <v>39.46052631578947</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>755</v>
+        <v>3000</v>
       </c>
       <c r="C447" t="n">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="D447" t="n">
-        <v>39.73684210526316</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>990</v>
+        <v>3460</v>
       </c>
       <c r="C448" t="n">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="D448" t="n">
-        <v>41.25</v>
+        <v>33.59223300970874</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>1058</v>
+        <v>3600</v>
       </c>
       <c r="C449" t="n">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="D449" t="n">
-        <v>50.38095238095238</v>
+        <v>29.03225806451613</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>1095</v>
+        <v>16000</v>
       </c>
       <c r="C450" t="n">
-        <v>20</v>
+        <v>347</v>
       </c>
       <c r="D450" t="n">
-        <v>54.75</v>
+        <v>46.10951008645533</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>1100</v>
+        <v>20000</v>
       </c>
       <c r="C451" t="n">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="D451" t="n">
-        <v>29.72972972972973</v>
+        <v>111.1111111111111</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>1280</v>
+        <v>2290</v>
       </c>
       <c r="C452" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D452" t="n">
-        <v>44.13793103448276</v>
+        <v>32.71428571428572</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>1350</v>
+        <v>2927</v>
       </c>
       <c r="C453" t="n">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="D453" t="n">
-        <v>38.57142857142857</v>
+        <v>25.23275862068965</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="C454" t="n">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D454" t="n">
-        <v>31.11111111111111</v>
+        <v>50</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>1550</v>
+        <v>755</v>
       </c>
       <c r="C455" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D455" t="n">
-        <v>46.96969696969697</v>
+        <v>39.73684210526316</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>1900</v>
+        <v>990</v>
       </c>
       <c r="C456" t="n">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="D456" t="n">
-        <v>29.6875</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>2200</v>
+        <v>1058</v>
       </c>
       <c r="C457" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="D457" t="n">
-        <v>40</v>
+        <v>50.38095238095238</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>3140</v>
+        <v>1095</v>
       </c>
       <c r="C458" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D458" t="n">
-        <v>31.4</v>
+        <v>54.75</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="C459" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D459" t="n">
-        <v>30</v>
+        <v>29.72972972972973</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>600</v>
+        <v>1280</v>
       </c>
       <c r="C460" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D460" t="n">
-        <v>37.5</v>
+        <v>44.13793103448276</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>890</v>
+        <v>1350</v>
       </c>
       <c r="C461" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D461" t="n">
-        <v>44.5</v>
+        <v>38.57142857142857</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>1050</v>
+        <v>1400</v>
       </c>
       <c r="C462" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D462" t="n">
-        <v>35</v>
+        <v>31.11111111111111</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>1100</v>
+        <v>1550</v>
       </c>
       <c r="C463" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D463" t="n">
-        <v>35.48387096774194</v>
+        <v>46.96969696969697</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>1650</v>
+        <v>1900</v>
       </c>
       <c r="C464" t="n">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D464" t="n">
-        <v>33.67346938775511</v>
+        <v>29.6875</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>2090</v>
+        <v>2200</v>
       </c>
       <c r="C465" t="n">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D465" t="n">
-        <v>28.63013698630137</v>
+        <v>40</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>6300</v>
+        <v>3140</v>
       </c>
       <c r="C466" t="n">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D466" t="n">
-        <v>56.25</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>930</v>
+        <v>600</v>
       </c>
       <c r="C467" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D467" t="n">
-        <v>58.125</v>
+        <v>30</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>1980</v>
+        <v>600</v>
       </c>
       <c r="C468" t="n">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="D468" t="n">
-        <v>23.57142857142857</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="C469" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D469" t="n">
-        <v>38.47826086956522</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="C470" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D470" t="n">
-        <v>22.5531914893617</v>
+        <v>35</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B471" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="C471" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D471" t="n">
-        <v>25</v>
+        <v>35.48387096774194</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>1500</v>
+        <v>1650</v>
       </c>
       <c r="C472" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D472" t="n">
-        <v>39.47368421052632</v>
+        <v>33.67346938775511</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>890</v>
+        <v>2090</v>
       </c>
       <c r="C473" t="n">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="D473" t="n">
-        <v>44.5</v>
+        <v>28.63013698630137</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>1300</v>
+        <v>6300</v>
       </c>
       <c r="C474" t="n">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="D474" t="n">
-        <v>30.95238095238095</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>900</v>
+        <v>930</v>
       </c>
       <c r="C475" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D475" t="n">
-        <v>31.03448275862069</v>
+        <v>58.125</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B476" t="n">
-        <v>1150</v>
+        <v>1980</v>
       </c>
       <c r="C476" t="n">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="D476" t="n">
-        <v>47.91666666666666</v>
+        <v>23.57142857142857</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>840</v>
+        <v>885</v>
       </c>
       <c r="C477" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D477" t="n">
-        <v>38.18181818181818</v>
+        <v>38.47826086956522</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>928</v>
+        <v>1060</v>
       </c>
       <c r="C478" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D478" t="n">
-        <v>32</v>
+        <v>22.5531914893617</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>981</v>
+        <v>1200</v>
       </c>
       <c r="C479" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D479" t="n">
-        <v>32.7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>1180</v>
+        <v>1500</v>
       </c>
       <c r="C480" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D480" t="n">
-        <v>38.06451612903226</v>
+        <v>39.47368421052632</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="B481" t="n">
-        <v>1198</v>
+        <v>890</v>
       </c>
       <c r="C481" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D481" t="n">
-        <v>36.3030303030303</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="B482" t="n">
-        <v>1450</v>
+        <v>1300</v>
       </c>
       <c r="C482" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D482" t="n">
-        <v>30.85106382978723</v>
+        <v>30.95238095238095</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="B483" t="n">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="C483" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D483" t="n">
-        <v>60</v>
+        <v>31.03448275862069</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B484" t="n">
-        <v>875</v>
+        <v>1150</v>
       </c>
       <c r="C484" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D484" t="n">
-        <v>48.61111111111111</v>
+        <v>47.91666666666666</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>998</v>
+        <v>840</v>
       </c>
       <c r="C485" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D485" t="n">
-        <v>29.35294117647059</v>
+        <v>38.18181818181818</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="B486" t="n">
-        <v>1000</v>
+        <v>928</v>
       </c>
       <c r="C486" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D486" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>1250</v>
+        <v>981</v>
       </c>
       <c r="C487" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D487" t="n">
-        <v>40.32258064516129</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>1480</v>
+        <v>1180</v>
       </c>
       <c r="C488" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D488" t="n">
-        <v>37</v>
+        <v>38.06451612903226</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B489" t="n">
-        <v>1900</v>
+        <v>1198</v>
       </c>
       <c r="C489" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D489" t="n">
-        <v>41.30434782608695</v>
+        <v>36.3030303030303</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B490" t="n">
-        <v>2500</v>
+        <v>1450</v>
       </c>
       <c r="C490" t="n">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D490" t="n">
-        <v>35.71428571428572</v>
+        <v>30.85106382978723</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="B491" t="n">
-        <v>950</v>
+        <v>3000</v>
       </c>
       <c r="C491" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D491" t="n">
-        <v>33.92857142857143</v>
+        <v>60</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>1180</v>
+        <v>875</v>
       </c>
       <c r="C492" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D492" t="n">
-        <v>43.7037037037037</v>
+        <v>48.61111111111111</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B493" t="n">
-        <v>1550</v>
+        <v>998</v>
       </c>
       <c r="C493" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D493" t="n">
-        <v>38.75</v>
+        <v>29.35294117647059</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>1333</v>
+        <v>1000</v>
       </c>
       <c r="C494" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D494" t="n">
-        <v>32.51219512195122</v>
+        <v>40</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="B495" t="n">
-        <v>1580</v>
+        <v>1250</v>
       </c>
       <c r="C495" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D495" t="n">
-        <v>39.5</v>
+        <v>40.32258064516129</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="B496" t="n">
-        <v>850</v>
+        <v>1480</v>
       </c>
       <c r="C496" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D496" t="n">
-        <v>31.48148148148148</v>
+        <v>37</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>488</v>
+        <v>1900</v>
       </c>
       <c r="C497" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D497" t="n">
-        <v>37.53846153846154</v>
+        <v>41.30434782608695</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="B498" t="n">
-        <v>619</v>
+        <v>2500</v>
       </c>
       <c r="C498" t="n">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D498" t="n">
-        <v>34.38888888888889</v>
+        <v>35.71428571428572</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B499" t="n">
-        <v>820</v>
+        <v>950</v>
       </c>
       <c r="C499" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D499" t="n">
-        <v>35.65217391304348</v>
+        <v>33.92857142857143</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>1350</v>
+        <v>1180</v>
       </c>
       <c r="C500" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D500" t="n">
-        <v>42.1875</v>
+        <v>43.7037037037037</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="B501" t="n">
-        <v>1475</v>
+        <v>1550</v>
       </c>
       <c r="C501" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D501" t="n">
-        <v>25.87719298245614</v>
+        <v>38.75</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B502" t="n">
-        <v>1397</v>
+        <v>1333</v>
       </c>
       <c r="C502" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D502" t="n">
-        <v>36.76315789473684</v>
+        <v>32.51219512195122</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B503" t="n">
-        <v>1460</v>
+        <v>1580</v>
       </c>
       <c r="C503" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D503" t="n">
-        <v>28.07692307692308</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="B504" t="n">
-        <v>3200</v>
+        <v>850</v>
       </c>
       <c r="C504" t="n">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="D504" t="n">
-        <v>28.07017543859649</v>
+        <v>31.48148148148148</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="B505" t="n">
-        <v>5000</v>
+        <v>488</v>
       </c>
       <c r="C505" t="n">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="D505" t="n">
-        <v>36.76470588235294</v>
+        <v>37.53846153846154</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B506" t="n">
-        <v>790</v>
+        <v>619</v>
       </c>
       <c r="C506" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D506" t="n">
-        <v>35.90909090909091</v>
+        <v>34.38888888888889</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B507" t="n">
-        <v>800</v>
+        <v>820</v>
       </c>
       <c r="C507" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D507" t="n">
-        <v>57.14285714285715</v>
+        <v>35.65217391304348</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="B508" t="n">
-        <v>810</v>
+        <v>1350</v>
       </c>
       <c r="C508" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D508" t="n">
-        <v>45</v>
+        <v>42.1875</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="B509" t="n">
-        <v>940</v>
+        <v>1475</v>
       </c>
       <c r="C509" t="n">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D509" t="n">
-        <v>36.15384615384615</v>
+        <v>25.87719298245614</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="B510" t="n">
-        <v>898</v>
+        <v>1397</v>
       </c>
       <c r="C510" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D510" t="n">
-        <v>33.25925925925926</v>
+        <v>36.76315789473684</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="B511" t="n">
-        <v>1137</v>
+        <v>1460</v>
       </c>
       <c r="C511" t="n">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D511" t="n">
-        <v>34.45454545454545</v>
+        <v>28.07692307692308</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B512" t="n">
-        <v>810</v>
+        <v>3200</v>
       </c>
       <c r="C512" t="n">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="D512" t="n">
-        <v>45</v>
+        <v>28.07017543859649</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="B513" t="n">
-        <v>940</v>
+        <v>5000</v>
       </c>
       <c r="C513" t="n">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="D513" t="n">
-        <v>36.15384615384615</v>
+        <v>36.76470588235294</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="B514" t="n">
-        <v>898</v>
+        <v>790</v>
       </c>
       <c r="C514" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D514" t="n">
-        <v>33.25925925925926</v>
+        <v>35.90909090909091</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="B515" t="n">
-        <v>1137</v>
+        <v>800</v>
       </c>
       <c r="C515" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D515" t="n">
-        <v>34.45454545454545</v>
+        <v>57.14285714285715</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="B516" t="n">
-        <v>1600</v>
+        <v>810</v>
       </c>
       <c r="C516" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D516" t="n">
-        <v>26.66666666666667</v>
+        <v>45</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B517" t="n">
-        <v>2097</v>
+        <v>940</v>
       </c>
       <c r="C517" t="n">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="D517" t="n">
-        <v>36.1551724137931</v>
+        <v>36.15384615384615</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B518" t="n">
-        <v>733</v>
+        <v>898</v>
       </c>
       <c r="C518" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D518" t="n">
-        <v>36.65</v>
+        <v>33.25925925925926</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="B519" t="n">
-        <v>1166</v>
+        <v>1137</v>
       </c>
       <c r="C519" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D519" t="n">
-        <v>43.18518518518518</v>
+        <v>34.45454545454545</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="B520" t="n">
-        <v>1500</v>
+        <v>810</v>
       </c>
       <c r="C520" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D520" t="n">
-        <v>39.47368421052632</v>
+        <v>45</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="B521" t="n">
-        <v>1900</v>
+        <v>940</v>
       </c>
       <c r="C521" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D521" t="n">
-        <v>42.22222222222222</v>
+        <v>36.15384615384615</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="B522" t="n">
-        <v>1900</v>
+        <v>898</v>
       </c>
       <c r="C522" t="n">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D522" t="n">
-        <v>29.6875</v>
+        <v>33.25925925925926</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B523" t="n">
-        <v>1950</v>
+        <v>1137</v>
       </c>
       <c r="C523" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D523" t="n">
-        <v>43.33333333333334</v>
+        <v>34.45454545454545</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="B524" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="C524" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D524" t="n">
-        <v>30.76923076923077</v>
+        <v>26.66666666666667</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="B525" t="n">
-        <v>2950</v>
+        <v>2097</v>
       </c>
       <c r="C525" t="n">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="D525" t="n">
-        <v>31.05263157894737</v>
+        <v>36.1551724137931</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B526" t="n">
-        <v>1200</v>
+        <v>733</v>
       </c>
       <c r="C526" t="n">
         <v>20</v>
       </c>
       <c r="D526" t="n">
-        <v>60</v>
+        <v>36.65</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="B527" t="n">
-        <v>1300</v>
+        <v>12000</v>
       </c>
       <c r="C527" t="n">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="D527" t="n">
-        <v>65</v>
+        <v>52.17391304347826</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="B528" t="n">
-        <v>1400</v>
+        <v>1166</v>
       </c>
       <c r="C528" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D528" t="n">
-        <v>70</v>
+        <v>43.18518518518518</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="B529" t="n">
-        <v>1690</v>
+        <v>1500</v>
       </c>
       <c r="C529" t="n">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D529" t="n">
-        <v>29.13793103448276</v>
+        <v>39.47368421052632</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="B530" t="n">
-        <v>1940</v>
+        <v>1900</v>
       </c>
       <c r="C530" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D530" t="n">
-        <v>48.5</v>
+        <v>42.22222222222222</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="B531" t="n">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="C531" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D531" t="n">
-        <v>30</v>
+        <v>29.6875</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="B532" t="n">
-        <v>2490</v>
+        <v>1950</v>
       </c>
       <c r="C532" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D532" t="n">
-        <v>35.57142857142857</v>
+        <v>43.33333333333334</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="B533" t="n">
-        <v>1490</v>
+        <v>2000</v>
       </c>
       <c r="C533" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D533" t="n">
-        <v>31.04166666666667</v>
+        <v>30.76923076923077</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="B534" t="n">
-        <v>2020</v>
+        <v>2950</v>
       </c>
       <c r="C534" t="n">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="D534" t="n">
-        <v>34.82758620689656</v>
+        <v>31.05263157894737</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="B535" t="n">
-        <v>2050</v>
+        <v>1200</v>
       </c>
       <c r="C535" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="D535" t="n">
-        <v>29.28571428571428</v>
+        <v>60</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="B536" t="n">
-        <v>1220</v>
+        <v>1300</v>
       </c>
       <c r="C536" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D536" t="n">
-        <v>29.04761904761905</v>
+        <v>65</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B537" t="n">
+        <v>1400</v>
+      </c>
+      <c r="C537" t="n">
+        <v>20</v>
+      </c>
+      <c r="D537" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="B538" t="n">
+        <v>1690</v>
+      </c>
+      <c r="C538" t="n">
+        <v>58</v>
+      </c>
+      <c r="D538" t="n">
+        <v>29.13793103448276</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="B539" t="n">
+        <v>1940</v>
+      </c>
+      <c r="C539" t="n">
+        <v>40</v>
+      </c>
+      <c r="D539" t="n">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="B540" t="n">
+        <v>2100</v>
+      </c>
+      <c r="C540" t="n">
+        <v>70</v>
+      </c>
+      <c r="D540" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="B541" t="n">
+        <v>2490</v>
+      </c>
+      <c r="C541" t="n">
+        <v>70</v>
+      </c>
+      <c r="D541" t="n">
+        <v>35.57142857142857</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="B542" t="n">
+        <v>1490</v>
+      </c>
+      <c r="C542" t="n">
+        <v>48</v>
+      </c>
+      <c r="D542" t="n">
+        <v>31.04166666666667</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="B543" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C543" t="n">
+        <v>58</v>
+      </c>
+      <c r="D543" t="n">
+        <v>34.82758620689656</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="B544" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C544" t="n">
+        <v>70</v>
+      </c>
+      <c r="D544" t="n">
+        <v>29.28571428571428</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="B545" t="n">
+        <v>1220</v>
+      </c>
+      <c r="C545" t="n">
+        <v>42</v>
+      </c>
+      <c r="D545" t="n">
+        <v>29.04761904761905</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
         <v>544</v>
       </c>
-      <c r="B537" t="n">
+      <c r="B546" t="n">
         <v>1610</v>
       </c>
-      <c r="C537" t="n">
+      <c r="C546" t="n">
         <v>44</v>
       </c>
-      <c r="D537" t="n">
+      <c r="D546" t="n">
         <v>36.59090909090909</v>
       </c>
     </row>
